--- a/earlywarning-pom/Document/test/SME RETAIL/test_Statistici_SMERetail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Statistici_SMERetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER_TABLE" sheetId="1" r:id="rId1"/>
     <sheet name="ANALYSIS_UNIT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="308">
   <si>
     <t>SNDG</t>
   </si>
@@ -55,21 +55,6 @@
     <t>FLG_SCONF_MAX_M2</t>
   </si>
   <si>
-    <t>0000000000000080</t>
-  </si>
-  <si>
-    <t>0000000000000079</t>
-  </si>
-  <si>
-    <t>0000000000000078</t>
-  </si>
-  <si>
-    <t>0000000000000077</t>
-  </si>
-  <si>
-    <t>0000000000000076</t>
-  </si>
-  <si>
     <t>NUM_GIO_SCONFINO</t>
   </si>
   <si>
@@ -97,54 +82,6 @@
     <t>escluso dal calcolo</t>
   </si>
   <si>
-    <t>0000000000000081</t>
-  </si>
-  <si>
-    <t>0000000000000082</t>
-  </si>
-  <si>
-    <t>0000000000000083</t>
-  </si>
-  <si>
-    <t>0000000000000084</t>
-  </si>
-  <si>
-    <t>0000000000000085</t>
-  </si>
-  <si>
-    <t>0000000000000086</t>
-  </si>
-  <si>
-    <t>0000000000000087</t>
-  </si>
-  <si>
-    <t>0000000000000088</t>
-  </si>
-  <si>
-    <t>0000000000000089</t>
-  </si>
-  <si>
-    <t>0000000000000090</t>
-  </si>
-  <si>
-    <t>0000000000000091</t>
-  </si>
-  <si>
-    <t>0000000000000092</t>
-  </si>
-  <si>
-    <t>0000000000000093</t>
-  </si>
-  <si>
-    <t>0000000000000094</t>
-  </si>
-  <si>
-    <t>0000000000000095</t>
-  </si>
-  <si>
-    <t>0000000000000096</t>
-  </si>
-  <si>
     <t xml:space="preserve">missing </t>
   </si>
   <si>
@@ -160,45 +97,18 @@
     <t>XRA004_4</t>
   </si>
   <si>
-    <t>0000000000000097</t>
-  </si>
-  <si>
-    <t>0000000000000098</t>
-  </si>
-  <si>
-    <t>0000000000000099</t>
-  </si>
-  <si>
     <t>NUM_GIO_SCONF_MAX_90GG</t>
   </si>
   <si>
     <t xml:space="preserve">XRA004_1 </t>
   </si>
   <si>
-    <t>0000000000000100</t>
-  </si>
-  <si>
-    <t>0000000000000101</t>
-  </si>
-  <si>
-    <t>0000000000000102</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMP_SCONF_AUTOR     </t>
   </si>
   <si>
     <t xml:space="preserve">IMP_SCONFINO </t>
   </si>
   <si>
-    <t>0000000000000103</t>
-  </si>
-  <si>
-    <t>0000000000000104</t>
-  </si>
-  <si>
-    <t>0000000000000105</t>
-  </si>
-  <si>
     <t>IND_150</t>
   </si>
   <si>
@@ -208,18 +118,6 @@
     <t>CAMPO_TEC_1</t>
   </si>
   <si>
-    <t>0000000000000106</t>
-  </si>
-  <si>
-    <t>0000000000000107</t>
-  </si>
-  <si>
-    <t>0000000000000108</t>
-  </si>
-  <si>
-    <t>0000000000000109</t>
-  </si>
-  <si>
     <t>IMP_UTIL_SEL_LIQ_AZ_M0</t>
   </si>
   <si>
@@ -238,9 +136,6 @@
     <t>IMP_ACC_SEL_LIQ_AZ_M2</t>
   </si>
   <si>
-    <t>0000000000000110</t>
-  </si>
-  <si>
     <t>CRZER000_1</t>
   </si>
   <si>
@@ -262,45 +157,6 @@
     <t>CRZER004_2</t>
   </si>
   <si>
-    <t>0000000000000111</t>
-  </si>
-  <si>
-    <t>0000000000000112</t>
-  </si>
-  <si>
-    <t>0000000000000113</t>
-  </si>
-  <si>
-    <t>0000000000000114</t>
-  </si>
-  <si>
-    <t>0000000000000115</t>
-  </si>
-  <si>
-    <t>0000000000000116</t>
-  </si>
-  <si>
-    <t>0000000000000117</t>
-  </si>
-  <si>
-    <t>0000000000000118</t>
-  </si>
-  <si>
-    <t>0000000000000119</t>
-  </si>
-  <si>
-    <t>0000000000000120</t>
-  </si>
-  <si>
-    <t>0000000000000121</t>
-  </si>
-  <si>
-    <t>0000000000000122</t>
-  </si>
-  <si>
-    <t>0000000000000123</t>
-  </si>
-  <si>
     <t>IMP_UTIL_S_T_C_AZ_M0</t>
   </si>
   <si>
@@ -313,51 +169,9 @@
     <t>REVENUE_T1</t>
   </si>
   <si>
-    <t>0000000000000124</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0000000000000125</t>
-  </si>
-  <si>
-    <t>0000000000000126</t>
-  </si>
-  <si>
-    <t>0000000000000127</t>
-  </si>
-  <si>
-    <t>0000000000000128</t>
-  </si>
-  <si>
-    <t>0000000000000129</t>
-  </si>
-  <si>
-    <t>0000000000000130</t>
-  </si>
-  <si>
-    <t>0000000000000131</t>
-  </si>
-  <si>
-    <t>0000000000000132</t>
-  </si>
-  <si>
-    <t>0000000000000133</t>
-  </si>
-  <si>
-    <t>0000000000000134</t>
-  </si>
-  <si>
-    <t>0000000000000135</t>
-  </si>
-  <si>
-    <t>0000000000000136</t>
-  </si>
-  <si>
-    <t>0000000000000137</t>
-  </si>
-  <si>
     <t>IMP_ACC_REV_AZ_M0</t>
   </si>
   <si>
@@ -376,9 +190,6 @@
     <t>IMP_UTIL_REV_AZ_M2</t>
   </si>
   <si>
-    <t>0000000000000138</t>
-  </si>
-  <si>
     <t>IMP_ACC_PROD_SCAD_AZ_M0</t>
   </si>
   <si>
@@ -397,108 +208,12 @@
     <t>IMP_UTIL_PROD_SCAD_AZ_M2</t>
   </si>
   <si>
-    <t>0000000000000139</t>
-  </si>
-  <si>
-    <t>0000000000000140</t>
-  </si>
-  <si>
-    <t>0000000000000141</t>
-  </si>
-  <si>
-    <t>0000000000000142</t>
-  </si>
-  <si>
-    <t>0000000000000143</t>
-  </si>
-  <si>
-    <t>0000000000000144</t>
-  </si>
-  <si>
-    <t>0000000000000145</t>
-  </si>
-  <si>
-    <t>0000000000000146</t>
-  </si>
-  <si>
-    <t>0000000000000147</t>
-  </si>
-  <si>
-    <t>0000000000000148</t>
-  </si>
-  <si>
-    <t>0000000000000149</t>
-  </si>
-  <si>
-    <t>0000000000000150</t>
-  </si>
-  <si>
-    <t>0000000000000151</t>
-  </si>
-  <si>
     <t>CRZER004_1;CRZER004_2</t>
   </si>
   <si>
     <t>CRZER004_2;CRZER004_1</t>
   </si>
   <si>
-    <t>0000000000000152</t>
-  </si>
-  <si>
-    <t>0000000000000153</t>
-  </si>
-  <si>
-    <t>0000000000000154</t>
-  </si>
-  <si>
-    <t>0000000000000155</t>
-  </si>
-  <si>
-    <t>0000000000000156</t>
-  </si>
-  <si>
-    <t>0000000000000157</t>
-  </si>
-  <si>
-    <t>0000000000000158</t>
-  </si>
-  <si>
-    <t>0000000000000159</t>
-  </si>
-  <si>
-    <t>0000000000000160</t>
-  </si>
-  <si>
-    <t>0000000000000161</t>
-  </si>
-  <si>
-    <t>0000000000000162</t>
-  </si>
-  <si>
-    <t>0000000000000163</t>
-  </si>
-  <si>
-    <t>0000000000000164</t>
-  </si>
-  <si>
-    <t>0000000000000165</t>
-  </si>
-  <si>
-    <t>0000000000000166</t>
-  </si>
-  <si>
-    <t>0000000000000167</t>
-  </si>
-  <si>
-    <t>0000000000000168</t>
-  </si>
-  <si>
-    <t>0000000000000169</t>
-  </si>
-  <si>
-    <t>0000000000000170</t>
-  </si>
-  <si>
     <t>IMP_UTIL_SEL_LIQ_M0</t>
   </si>
   <si>
@@ -535,45 +250,6 @@
     <t>CRSYS004_2;CRSYS004_1</t>
   </si>
   <si>
-    <t>0000000000000171</t>
-  </si>
-  <si>
-    <t>0000000000000172</t>
-  </si>
-  <si>
-    <t>0000000000000173</t>
-  </si>
-  <si>
-    <t>0000000000000174</t>
-  </si>
-  <si>
-    <t>0000000000000175</t>
-  </si>
-  <si>
-    <t>0000000000000176</t>
-  </si>
-  <si>
-    <t>0000000000000177</t>
-  </si>
-  <si>
-    <t>0000000000000178</t>
-  </si>
-  <si>
-    <t>0000000000000179</t>
-  </si>
-  <si>
-    <t>0000000000000180</t>
-  </si>
-  <si>
-    <t>0000000000000181</t>
-  </si>
-  <si>
-    <t>0000000000000182</t>
-  </si>
-  <si>
-    <t>0000000000000183</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMP_UTIL_REV_M0 </t>
   </si>
   <si>
@@ -595,57 +271,6 @@
     <t>CRSYS000_1</t>
   </si>
   <si>
-    <t>0000000000000184</t>
-  </si>
-  <si>
-    <t>0000000000000185</t>
-  </si>
-  <si>
-    <t>0000000000000186</t>
-  </si>
-  <si>
-    <t>0000000000000187</t>
-  </si>
-  <si>
-    <t>0000000000000188</t>
-  </si>
-  <si>
-    <t>0000000000000189</t>
-  </si>
-  <si>
-    <t>0000000000000190</t>
-  </si>
-  <si>
-    <t>0000000000000191</t>
-  </si>
-  <si>
-    <t>0000000000000192</t>
-  </si>
-  <si>
-    <t>0000000000000193</t>
-  </si>
-  <si>
-    <t>0000000000000194</t>
-  </si>
-  <si>
-    <t>0000000000000195</t>
-  </si>
-  <si>
-    <t>0000000000000196</t>
-  </si>
-  <si>
-    <t>0000000000000197</t>
-  </si>
-  <si>
-    <t>0000000000000198</t>
-  </si>
-  <si>
-    <t>0000000000000199</t>
-  </si>
-  <si>
-    <t>0000000000000200</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMP_UTIL_MAT_M0 </t>
   </si>
   <si>
@@ -664,54 +289,6 @@
     <t>IMP_ACC_MAT_M2</t>
   </si>
   <si>
-    <t>0000000000000201</t>
-  </si>
-  <si>
-    <t>0000000000000202</t>
-  </si>
-  <si>
-    <t>0000000000000203</t>
-  </si>
-  <si>
-    <t>0000000000000204</t>
-  </si>
-  <si>
-    <t>0000000000000205</t>
-  </si>
-  <si>
-    <t>0000000000000206</t>
-  </si>
-  <si>
-    <t>0000000000000207</t>
-  </si>
-  <si>
-    <t>0000000000000208</t>
-  </si>
-  <si>
-    <t>0000000000000209</t>
-  </si>
-  <si>
-    <t>0000000000000210</t>
-  </si>
-  <si>
-    <t>0000000000000211</t>
-  </si>
-  <si>
-    <t>0000000000000212</t>
-  </si>
-  <si>
-    <t>0000000000000213</t>
-  </si>
-  <si>
-    <t>0000000000000214</t>
-  </si>
-  <si>
-    <t>0000000000000215</t>
-  </si>
-  <si>
-    <t>0000000000000216</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMP_UTIL_S_T_C_M0 </t>
   </si>
   <si>
@@ -721,54 +298,6 @@
     <t>IMP_UTIL_S_T_C_M2</t>
   </si>
   <si>
-    <t>0000000000000217</t>
-  </si>
-  <si>
-    <t>0000000000000218</t>
-  </si>
-  <si>
-    <t>0000000000000219</t>
-  </si>
-  <si>
-    <t>0000000000000220</t>
-  </si>
-  <si>
-    <t>0000000000000221</t>
-  </si>
-  <si>
-    <t>0000000000000222</t>
-  </si>
-  <si>
-    <t>0000000000000223</t>
-  </si>
-  <si>
-    <t>0000000000000224</t>
-  </si>
-  <si>
-    <t>0000000000000225</t>
-  </si>
-  <si>
-    <t>0000000000000226</t>
-  </si>
-  <si>
-    <t>0000000000000227</t>
-  </si>
-  <si>
-    <t>0000000000000228</t>
-  </si>
-  <si>
-    <t>0000000000000229</t>
-  </si>
-  <si>
-    <t>0000000000000230</t>
-  </si>
-  <si>
-    <t>0000000000000231</t>
-  </si>
-  <si>
-    <t>0000000000000232</t>
-  </si>
-  <si>
     <t>INDICATORE</t>
   </si>
   <si>
@@ -805,45 +334,6 @@
     <t>IND_94</t>
   </si>
   <si>
-    <t>0000000000000233</t>
-  </si>
-  <si>
-    <t>0000000000000234</t>
-  </si>
-  <si>
-    <t>0000000000000235</t>
-  </si>
-  <si>
-    <t>0000000000000236</t>
-  </si>
-  <si>
-    <t>0000000000000237</t>
-  </si>
-  <si>
-    <t>0000000000000238</t>
-  </si>
-  <si>
-    <t>0000000000000239</t>
-  </si>
-  <si>
-    <t>0000000000000240</t>
-  </si>
-  <si>
-    <t>0000000000000241</t>
-  </si>
-  <si>
-    <t>0000000000000242</t>
-  </si>
-  <si>
-    <t>0000000000000243</t>
-  </si>
-  <si>
-    <t>0000000000000244</t>
-  </si>
-  <si>
-    <t>0000000000000245</t>
-  </si>
-  <si>
     <t>IMP_PAG_RAFI_M0</t>
   </si>
   <si>
@@ -935,12 +425,531 @@
   </si>
   <si>
     <t>0000000000000259</t>
+  </si>
+  <si>
+    <t>'0000000000000076'</t>
+  </si>
+  <si>
+    <t>'0000000000000077'</t>
+  </si>
+  <si>
+    <t>'0000000000000078'</t>
+  </si>
+  <si>
+    <t>'0000000000000079'</t>
+  </si>
+  <si>
+    <t>'0000000000000080'</t>
+  </si>
+  <si>
+    <t>'0000000000000081'</t>
+  </si>
+  <si>
+    <t>'0000000000000082'</t>
+  </si>
+  <si>
+    <t>'0000000000000083'</t>
+  </si>
+  <si>
+    <t>'0000000000000084'</t>
+  </si>
+  <si>
+    <t>'0000000000000085'</t>
+  </si>
+  <si>
+    <t>'0000000000000086'</t>
+  </si>
+  <si>
+    <t>'0000000000000087'</t>
+  </si>
+  <si>
+    <t>'0000000000000088'</t>
+  </si>
+  <si>
+    <t>'0000000000000089'</t>
+  </si>
+  <si>
+    <t>'0000000000000090'</t>
+  </si>
+  <si>
+    <t>'0000000000000091'</t>
+  </si>
+  <si>
+    <t>'0000000000000092'</t>
+  </si>
+  <si>
+    <t>'0000000000000093'</t>
+  </si>
+  <si>
+    <t>'0000000000000094'</t>
+  </si>
+  <si>
+    <t>'0000000000000095'</t>
+  </si>
+  <si>
+    <t>'0000000000000096'</t>
+  </si>
+  <si>
+    <t>'0000000000000097'</t>
+  </si>
+  <si>
+    <t>'0000000000000098'</t>
+  </si>
+  <si>
+    <t>'0000000000000099'</t>
+  </si>
+  <si>
+    <t>'0000000000000100'</t>
+  </si>
+  <si>
+    <t>'0000000000000101'</t>
+  </si>
+  <si>
+    <t>'0000000000000102'</t>
+  </si>
+  <si>
+    <t>'0000000000000103'</t>
+  </si>
+  <si>
+    <t>'0000000000000104'</t>
+  </si>
+  <si>
+    <t>'0000000000000105'</t>
+  </si>
+  <si>
+    <t>'0000000000000106'</t>
+  </si>
+  <si>
+    <t>'0000000000000107'</t>
+  </si>
+  <si>
+    <t>'0000000000000108'</t>
+  </si>
+  <si>
+    <t>'0000000000000109'</t>
+  </si>
+  <si>
+    <t>'0000000000000110'</t>
+  </si>
+  <si>
+    <t>'0000000000000111'</t>
+  </si>
+  <si>
+    <t>'0000000000000112'</t>
+  </si>
+  <si>
+    <t>'0000000000000113'</t>
+  </si>
+  <si>
+    <t>'0000000000000114'</t>
+  </si>
+  <si>
+    <t>'0000000000000115'</t>
+  </si>
+  <si>
+    <t>'0000000000000116'</t>
+  </si>
+  <si>
+    <t>'0000000000000117'</t>
+  </si>
+  <si>
+    <t>'0000000000000118'</t>
+  </si>
+  <si>
+    <t>'0000000000000119'</t>
+  </si>
+  <si>
+    <t>'0000000000000120'</t>
+  </si>
+  <si>
+    <t>'0000000000000121'</t>
+  </si>
+  <si>
+    <t>'0000000000000122'</t>
+  </si>
+  <si>
+    <t>'0000000000000123'</t>
+  </si>
+  <si>
+    <t>'0000000000000124'</t>
+  </si>
+  <si>
+    <t>'0000000000000125'</t>
+  </si>
+  <si>
+    <t>'0000000000000126'</t>
+  </si>
+  <si>
+    <t>'0000000000000127'</t>
+  </si>
+  <si>
+    <t>'0000000000000128'</t>
+  </si>
+  <si>
+    <t>'0000000000000129'</t>
+  </si>
+  <si>
+    <t>'0000000000000130'</t>
+  </si>
+  <si>
+    <t>'0000000000000131'</t>
+  </si>
+  <si>
+    <t>'0000000000000132'</t>
+  </si>
+  <si>
+    <t>'0000000000000133'</t>
+  </si>
+  <si>
+    <t>'0000000000000134'</t>
+  </si>
+  <si>
+    <t>'0000000000000135'</t>
+  </si>
+  <si>
+    <t>'0000000000000136'</t>
+  </si>
+  <si>
+    <t>'0000000000000137'</t>
+  </si>
+  <si>
+    <t>'0000000000000138'</t>
+  </si>
+  <si>
+    <t>'0000000000000139'</t>
+  </si>
+  <si>
+    <t>'0000000000000140'</t>
+  </si>
+  <si>
+    <t>'0000000000000141'</t>
+  </si>
+  <si>
+    <t>'0000000000000142'</t>
+  </si>
+  <si>
+    <t>'0000000000000143'</t>
+  </si>
+  <si>
+    <t>'0000000000000144'</t>
+  </si>
+  <si>
+    <t>'0000000000000145'</t>
+  </si>
+  <si>
+    <t>'0000000000000146'</t>
+  </si>
+  <si>
+    <t>'0000000000000147'</t>
+  </si>
+  <si>
+    <t>'0000000000000148'</t>
+  </si>
+  <si>
+    <t>'0000000000000149'</t>
+  </si>
+  <si>
+    <t>'0000000000000150'</t>
+  </si>
+  <si>
+    <t>'0000000000000151'</t>
+  </si>
+  <si>
+    <t>'0000000000000152'</t>
+  </si>
+  <si>
+    <t>'0000000000000153'</t>
+  </si>
+  <si>
+    <t>'0000000000000154'</t>
+  </si>
+  <si>
+    <t>'0000000000000155'</t>
+  </si>
+  <si>
+    <t>'0000000000000156'</t>
+  </si>
+  <si>
+    <t>'0000000000000157'</t>
+  </si>
+  <si>
+    <t>'0000000000000158'</t>
+  </si>
+  <si>
+    <t>'0000000000000159'</t>
+  </si>
+  <si>
+    <t>'0000000000000160'</t>
+  </si>
+  <si>
+    <t>'0000000000000161'</t>
+  </si>
+  <si>
+    <t>'0000000000000162'</t>
+  </si>
+  <si>
+    <t>'0000000000000163'</t>
+  </si>
+  <si>
+    <t>'0000000000000164'</t>
+  </si>
+  <si>
+    <t>'0000000000000165'</t>
+  </si>
+  <si>
+    <t>'0000000000000166'</t>
+  </si>
+  <si>
+    <t>'0000000000000167'</t>
+  </si>
+  <si>
+    <t>'0000000000000168'</t>
+  </si>
+  <si>
+    <t>'0000000000000169'</t>
+  </si>
+  <si>
+    <t>'0000000000000170'</t>
+  </si>
+  <si>
+    <t>'0000000000000171'</t>
+  </si>
+  <si>
+    <t>'0000000000000172'</t>
+  </si>
+  <si>
+    <t>'0000000000000173'</t>
+  </si>
+  <si>
+    <t>'0000000000000174'</t>
+  </si>
+  <si>
+    <t>'0000000000000175'</t>
+  </si>
+  <si>
+    <t>'0000000000000176'</t>
+  </si>
+  <si>
+    <t>'0000000000000177'</t>
+  </si>
+  <si>
+    <t>'0000000000000178'</t>
+  </si>
+  <si>
+    <t>'0000000000000179'</t>
+  </si>
+  <si>
+    <t>'0000000000000180'</t>
+  </si>
+  <si>
+    <t>'0000000000000181'</t>
+  </si>
+  <si>
+    <t>'0000000000000182'</t>
+  </si>
+  <si>
+    <t>'0000000000000183'</t>
+  </si>
+  <si>
+    <t>'0000000000000184'</t>
+  </si>
+  <si>
+    <t>'0000000000000185'</t>
+  </si>
+  <si>
+    <t>'0000000000000186'</t>
+  </si>
+  <si>
+    <t>'0000000000000187'</t>
+  </si>
+  <si>
+    <t>'0000000000000188'</t>
+  </si>
+  <si>
+    <t>'0000000000000189'</t>
+  </si>
+  <si>
+    <t>'0000000000000190'</t>
+  </si>
+  <si>
+    <t>'0000000000000191'</t>
+  </si>
+  <si>
+    <t>'0000000000000192'</t>
+  </si>
+  <si>
+    <t>'0000000000000193'</t>
+  </si>
+  <si>
+    <t>'0000000000000194'</t>
+  </si>
+  <si>
+    <t>'0000000000000195'</t>
+  </si>
+  <si>
+    <t>'0000000000000196'</t>
+  </si>
+  <si>
+    <t>'0000000000000197'</t>
+  </si>
+  <si>
+    <t>'0000000000000198'</t>
+  </si>
+  <si>
+    <t>'0000000000000199'</t>
+  </si>
+  <si>
+    <t>'0000000000000200'</t>
+  </si>
+  <si>
+    <t>'0000000000000201'</t>
+  </si>
+  <si>
+    <t>'0000000000000202'</t>
+  </si>
+  <si>
+    <t>'0000000000000203'</t>
+  </si>
+  <si>
+    <t>'0000000000000204'</t>
+  </si>
+  <si>
+    <t>'0000000000000205'</t>
+  </si>
+  <si>
+    <t>'0000000000000206'</t>
+  </si>
+  <si>
+    <t>'0000000000000207'</t>
+  </si>
+  <si>
+    <t>'0000000000000208'</t>
+  </si>
+  <si>
+    <t>'0000000000000209'</t>
+  </si>
+  <si>
+    <t>'0000000000000210'</t>
+  </si>
+  <si>
+    <t>'0000000000000211'</t>
+  </si>
+  <si>
+    <t>'0000000000000212'</t>
+  </si>
+  <si>
+    <t>'0000000000000213'</t>
+  </si>
+  <si>
+    <t>'0000000000000214'</t>
+  </si>
+  <si>
+    <t>'0000000000000215'</t>
+  </si>
+  <si>
+    <t>'0000000000000216'</t>
+  </si>
+  <si>
+    <t>'0000000000000217'</t>
+  </si>
+  <si>
+    <t>'0000000000000218'</t>
+  </si>
+  <si>
+    <t>'0000000000000219'</t>
+  </si>
+  <si>
+    <t>'0000000000000220'</t>
+  </si>
+  <si>
+    <t>'0000000000000221'</t>
+  </si>
+  <si>
+    <t>'0000000000000222'</t>
+  </si>
+  <si>
+    <t>'0000000000000223'</t>
+  </si>
+  <si>
+    <t>'0000000000000224'</t>
+  </si>
+  <si>
+    <t>'0000000000000225'</t>
+  </si>
+  <si>
+    <t>'0000000000000226'</t>
+  </si>
+  <si>
+    <t>'0000000000000227'</t>
+  </si>
+  <si>
+    <t>'0000000000000228'</t>
+  </si>
+  <si>
+    <t>'0000000000000229'</t>
+  </si>
+  <si>
+    <t>'0000000000000230'</t>
+  </si>
+  <si>
+    <t>'0000000000000231'</t>
+  </si>
+  <si>
+    <t>'0000000000000232'</t>
+  </si>
+  <si>
+    <t>'0000000000000233'</t>
+  </si>
+  <si>
+    <t>'0000000000000234'</t>
+  </si>
+  <si>
+    <t>'0000000000000235'</t>
+  </si>
+  <si>
+    <t>'0000000000000236'</t>
+  </si>
+  <si>
+    <t>'0000000000000237'</t>
+  </si>
+  <si>
+    <t>'0000000000000238'</t>
+  </si>
+  <si>
+    <t>'0000000000000239'</t>
+  </si>
+  <si>
+    <t>'0000000000000240'</t>
+  </si>
+  <si>
+    <t>'0000000000000241'</t>
+  </si>
+  <si>
+    <t>'0000000000000242'</t>
+  </si>
+  <si>
+    <t>'0000000000000243'</t>
+  </si>
+  <si>
+    <t>'0000000000000244'</t>
+  </si>
+  <si>
+    <t>'0000000000000245'</t>
+  </si>
+  <si>
+    <t>COD_SNDG</t>
+  </si>
+  <si>
+    <t>'1'</t>
+  </si>
+  <si>
+    <t>'0'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,6 +1027,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,9 +1166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,9 +1317,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1607,47 +1664,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:CE172"/>
+  <dimension ref="B1:EN172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BV170" sqref="BV170"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="12" customWidth="1"/>
-    <col min="10" max="11" width="19.21875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="26.77734375" style="12" customWidth="1"/>
-    <col min="16" max="69" width="32.109375" style="12" customWidth="1"/>
-    <col min="70" max="71" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="16.6640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.88671875" style="20"/>
-    <col min="78" max="78" width="21.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="83" width="8.88671875" style="20"/>
-    <col min="84" max="16384" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="25.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="12" customWidth="1"/>
+    <col min="10" max="11" width="19.28515625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" style="12" customWidth="1"/>
+    <col min="16" max="69" width="32.140625" style="12" customWidth="1"/>
+    <col min="70" max="71" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="16.7109375" style="12" customWidth="1"/>
+    <col min="75" max="75" width="11.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="22.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.85546875" style="19"/>
+    <col min="78" max="78" width="21.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="32" style="19" customWidth="1"/>
+    <col min="81" max="81" width="31.5703125" style="19" customWidth="1"/>
+    <col min="82" max="83" width="8.85546875" style="19"/>
+    <col min="84" max="84" width="18.28515625" style="12" customWidth="1"/>
+    <col min="85" max="85" width="17.85546875" style="12" customWidth="1"/>
+    <col min="86" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:144" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="str">
+        <f>B2&amp;","&amp;F2</f>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0</v>
+      </c>
+      <c r="G1" s="12" t="str">
+        <f>F1&amp;","&amp;G2</f>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1</v>
+      </c>
+      <c r="H1" s="12" t="str">
+        <f t="shared" ref="H1:M1" si="0">G1&amp;","&amp;H2</f>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2</v>
+      </c>
+      <c r="I1" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO</v>
+      </c>
+      <c r="J1" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO</v>
+      </c>
+      <c r="K1" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT</v>
+      </c>
+      <c r="L1" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG</v>
+      </c>
+      <c r="M1" s="75" t="str">
+        <f>L1&amp;","&amp;M2</f>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG</v>
+      </c>
+      <c r="O1" s="75" t="str">
+        <f>M1&amp;","&amp;O2</f>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG</v>
+      </c>
+      <c r="P1" s="75" t="str">
+        <f t="shared" ref="P1:BQ1" si="1">N1&amp;","&amp;P2</f>
+        <v>,NUM_GIO_SCONF_MAX_90GG</v>
+      </c>
+      <c r="Q1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     </v>
+      </c>
+      <c r="R1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO </v>
+      </c>
+      <c r="S1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150</v>
+      </c>
+      <c r="T1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG </v>
+      </c>
+      <c r="U1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0</v>
+      </c>
+      <c r="V1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1</v>
+      </c>
+      <c r="W1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2</v>
+      </c>
+      <c r="X1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0</v>
+      </c>
+      <c r="Y1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1</v>
+      </c>
+      <c r="Z1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2</v>
+      </c>
+      <c r="AA1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0</v>
+      </c>
+      <c r="AB1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1</v>
+      </c>
+      <c r="AC1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2</v>
+      </c>
+      <c r="AD1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1</v>
+      </c>
+      <c r="AE1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0</v>
+      </c>
+      <c r="AF1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1</v>
+      </c>
+      <c r="AG1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2</v>
+      </c>
+      <c r="AH1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0</v>
+      </c>
+      <c r="AI1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1</v>
+      </c>
+      <c r="AJ1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2</v>
+      </c>
+      <c r="AK1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0</v>
+      </c>
+      <c r="AL1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1</v>
+      </c>
+      <c r="AM1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2</v>
+      </c>
+      <c r="AN1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0</v>
+      </c>
+      <c r="AO1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1</v>
+      </c>
+      <c r="AP1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2</v>
+      </c>
+      <c r="AQ1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0</v>
+      </c>
+      <c r="AR1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1</v>
+      </c>
+      <c r="AS1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1</v>
+      </c>
+      <c r="AT1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 </v>
+      </c>
+      <c r="AU1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1</v>
+      </c>
+      <c r="AV1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2</v>
+      </c>
+      <c r="AW1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 </v>
+      </c>
+      <c r="AX1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1</v>
+      </c>
+      <c r="AY1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2</v>
+      </c>
+      <c r="AZ1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 </v>
+      </c>
+      <c r="BA1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1</v>
+      </c>
+      <c r="BB1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2</v>
+      </c>
+      <c r="BC1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 </v>
+      </c>
+      <c r="BD1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2,IMP_UTIL_MAT_M1</v>
+      </c>
+      <c r="BE1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2</v>
+      </c>
+      <c r="BF1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2,IMP_UTIL_MAT_M1,IMP_ACC_MAT_M0 </v>
+      </c>
+      <c r="BG1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1</v>
+      </c>
+      <c r="BH1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2,IMP_UTIL_MAT_M1,IMP_ACC_MAT_M0 ,IMP_ACC_MAT_M2</v>
+      </c>
+      <c r="BI1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1,IMP_UTIL_S_T_C_M0 </v>
+      </c>
+      <c r="BJ1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2,IMP_UTIL_MAT_M1,IMP_ACC_MAT_M0 ,IMP_ACC_MAT_M2,IMP_UTIL_S_T_C_M1</v>
+      </c>
+      <c r="BK1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1,IMP_UTIL_S_T_C_M0 ,IMP_UTIL_S_T_C_M2</v>
+      </c>
+      <c r="BL1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2,IMP_UTIL_MAT_M1,IMP_ACC_MAT_M0 ,IMP_ACC_MAT_M2,IMP_UTIL_S_T_C_M1,IMP_PAG_RAFI_M0</v>
+      </c>
+      <c r="BM1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1,IMP_UTIL_S_T_C_M0 ,IMP_UTIL_S_T_C_M2,IMP_PAG_RAFI_M1</v>
+      </c>
+      <c r="BN1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2,IMP_UTIL_MAT_M1,IMP_ACC_MAT_M0 ,IMP_ACC_MAT_M2,IMP_UTIL_S_T_C_M1,IMP_PAG_RAFI_M0,IMP_PAG_RAFI_M2</v>
+      </c>
+      <c r="BO1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1,IMP_UTIL_S_T_C_M0 ,IMP_UTIL_S_T_C_M2,IMP_PAG_RAFI_M1,IMP_ENT_CORR_M0</v>
+      </c>
+      <c r="BP1" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>,NUM_GIO_SCONF_MAX_90GG,IMP_SCONFINO ,FLG_SCONF_MAX_NO_AUTOR_89GG ,IMP_UTIL_SEL_LIQ_AZ_M1,IMP_ACC_SEL_LIQ_AZ_M0,IMP_ACC_SEL_LIQ_AZ_M2,IMP_UTIL_S_T_C_AZ_M1,REVENUE_T1,IMP_ACC_REV_AZ_M1,IMP_UTIL_REV_AZ_M0,IMP_UTIL_REV_AZ_M2,IMP_ACC_PROD_SCAD_AZ_M1,IMP_UTIL_PROD_SCAD_AZ_M0,IMP_UTIL_PROD_SCAD_AZ_M2,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M0 ,IMP_ACC_SEL_LIQ_M2,IMP_UTIL_REV_M1,IMP_ACC_REV_M0 ,IMP_ACC_REV_M2,IMP_UTIL_MAT_M1,IMP_ACC_MAT_M0 ,IMP_ACC_MAT_M2,IMP_UTIL_S_T_C_M1,IMP_PAG_RAFI_M0,IMP_PAG_RAFI_M2,IMP_ENT_CORR_M1</v>
+      </c>
+      <c r="BQ1" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1,IMP_UTIL_S_T_C_M0 ,IMP_UTIL_S_T_C_M2,IMP_PAG_RAFI_M1,IMP_ENT_CORR_M0,IMP_ENT_CORR_M2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:144" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1663,232 +1982,232 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="69" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AO2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW2" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX2" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="BY2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="BW2" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="BX2" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="BY2" s="50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="2:78" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2">
         <v>52</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
+      <c r="F3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1959,26 +2278,291 @@
       <c r="BW3" s="2"/>
       <c r="BX3" s="2"/>
       <c r="BY3" s="2"/>
-    </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ3" s="74" t="str">
+        <f>"INSERT INTO ( "&amp;BQ$1&amp;") VALUES ( "</f>
+        <v xml:space="preserve">INSERT INTO ( COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1,IMP_UTIL_S_T_C_M0 ,IMP_UTIL_S_T_C_M2,IMP_PAG_RAFI_M1,IMP_ENT_CORR_M0,IMP_ENT_CORR_M2) VALUES ( </v>
+      </c>
+      <c r="CA3" s="73" t="str">
+        <f>B3</f>
+        <v>'0000000000000076'</v>
+      </c>
+      <c r="CB3" s="19" t="str">
+        <f>CA3&amp;","&amp;(IF(OR(LEN(F3)=0,F3="-"),"NULL",F3))</f>
+        <v>'0000000000000076','1'</v>
+      </c>
+      <c r="CC3" s="19" t="str">
+        <f>CB3&amp;","&amp;(IF(OR(LEN(G3)=0,G3="-"),"NULL",G3))</f>
+        <v>'0000000000000076','1','0'</v>
+      </c>
+      <c r="CD3" s="19" t="str">
+        <f t="shared" ref="CD3:EM3" si="2">CC3&amp;","&amp;(IF(OR(LEN(H3)=0,H3="-"),"NULL",H3))</f>
+        <v>'0000000000000076','1','0','0'</v>
+      </c>
+      <c r="CE3" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>'0000000000000076','1','0','0',NULL</v>
+      </c>
+      <c r="CF3" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL</v>
+      </c>
+      <c r="CG3" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL</v>
+      </c>
+      <c r="CH3" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CI3" s="19" t="str">
+        <f>CH3&amp;","&amp;(IF(OR(LEN(M3)=0,M3="-"),"NULL",M3))</f>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CJ3" s="77"/>
+      <c r="CK3" s="73" t="str">
+        <f>CI3&amp;","&amp;(IF(OR(LEN(O3)=0,O3="-"),"NULL",O3))</f>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CL3" s="73" t="str">
+        <f t="shared" ref="CL3:EM3" si="3">CJ3&amp;","&amp;(IF(OR(LEN(P3)=0,P3="-"),"NULL",P3))</f>
+        <v>,NULL</v>
+      </c>
+      <c r="CM3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CN3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL</v>
+      </c>
+      <c r="CO3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CP3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL</v>
+      </c>
+      <c r="CQ3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CR3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CS3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CT3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CU3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CV3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CW3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CX3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CY3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="CZ3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DA3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DB3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DC3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DD3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DE3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DF3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DG3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DH3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DI3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DJ3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DK3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DL3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DM3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DN3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DO3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DP3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DQ3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DR3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DS3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DT3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DU3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DV3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DW3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DX3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DY3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="DZ3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EA3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EB3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EC3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="ED3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EE3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EF3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EG3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EH3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EI3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EJ3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EK3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EL3" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EM3" s="78" t="str">
+        <f t="shared" si="3"/>
+        <v>'0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="EN3" s="72" t="str">
+        <f>BZ3&amp;EM3&amp;") ; "</f>
+        <v xml:space="preserve">INSERT INTO ( COD_SNDG,FLG_SCONF_MAX_M0,FLG_SCONF_MAX_M1,FLG_SCONF_MAX_M2,NUM_GIO_SCONFINO,IMP_SCONFINO,IMP_UTILIZZO_TOT,IMP_SCONF_CUM_90GG,IMP_UTILIZZO_CUM_90GG,IMP_SCONF_MEANMISS_90GG,IMP_SCONF_AUTOR     ,IND_150,IMP_UTIL_SEL_LIQ_AZ_M0,IMP_UTIL_SEL_LIQ_AZ_M2,IMP_ACC_SEL_LIQ_AZ_M1,IMP_UTIL_S_T_C_AZ_M0,IMP_UTIL_S_T_C_AZ_M2,IMP_ACC_REV_AZ_M0,IMP_ACC_REV_AZ_M2,IMP_UTIL_REV_AZ_M1,IMP_ACC_PROD_SCAD_AZ_M0,IMP_ACC_PROD_SCAD_AZ_M2,IMP_UTIL_PROD_SCAD_AZ_M1,IMP_UTIL_SEL_LIQ_M0,IMP_UTIL_SEL_LIQ_M1,IMP_ACC_SEL_LIQ_M1,IMP_UTIL_REV_M0 ,IMP_UTIL_REV_M2,IMP_ACC_REV_M1,IMP_UTIL_MAT_M0 ,IMP_UTIL_MAT_M2,IMP_ACC_MAT_M1,IMP_UTIL_S_T_C_M0 ,IMP_UTIL_S_T_C_M2,IMP_PAG_RAFI_M1,IMP_ENT_CORR_M0,IMP_ENT_CORR_M2) VALUES ( '0000000000000076','1','0','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ; </v>
+      </c>
+    </row>
+    <row r="4" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2">
         <v>52</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
+      <c r="F4" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2050,25 +2634,25 @@
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
     </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2">
         <v>52</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
+      <c r="F5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2139,25 +2723,25 @@
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
     </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2">
         <v>52</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
+      <c r="F6" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2229,14 +2813,14 @@
       <c r="BX6" s="2"/>
       <c r="BY6" s="2"/>
     </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2321,14 +2905,14 @@
       <c r="BX7" s="2"/>
       <c r="BY7" s="2"/>
     </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2">
         <v>53</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="6"/>
@@ -2423,16 +3007,16 @@
       <c r="BW8" s="2"/>
       <c r="BX8" s="2"/>
       <c r="BY8" s="2"/>
-      <c r="BZ8" s="43"/>
-    </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ8" s="42"/>
+    </row>
+    <row r="9" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2">
         <v>53</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -2527,21 +3111,23 @@
       <c r="BW9" s="2"/>
       <c r="BX9" s="2"/>
       <c r="BY9" s="2"/>
-      <c r="BZ9" s="43"/>
-    </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ9" s="42"/>
+    </row>
+    <row r="10" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2">
         <v>53</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="6">
         <v>35</v>
@@ -2631,17 +3217,17 @@
       <c r="BW10" s="2"/>
       <c r="BX10" s="2"/>
       <c r="BY10" s="2"/>
-      <c r="BZ10" s="43"/>
-    </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ10" s="42"/>
+    </row>
+    <row r="11" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2">
         <v>53</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>41</v>
+      <c r="D11" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>6</v>
@@ -2734,20 +3320,20 @@
       <c r="BW11" s="2"/>
       <c r="BX11" s="2"/>
       <c r="BY11" s="2"/>
-      <c r="BZ11" s="43"/>
-    </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ11" s="42"/>
+    </row>
+    <row r="12" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
         <v>53</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>41</v>
+      <c r="D12" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2840,20 +3426,20 @@
       <c r="BW12" s="2"/>
       <c r="BX12" s="2"/>
       <c r="BY12" s="2"/>
-      <c r="BZ12" s="43"/>
-    </row>
-    <row r="13" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ12" s="42"/>
+    </row>
+    <row r="13" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C13" s="2">
         <v>53</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>41</v>
+      <c r="D13" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2946,20 +3532,20 @@
       <c r="BW13" s="2"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
-      <c r="BZ13" s="44"/>
-    </row>
-    <row r="14" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ13" s="43"/>
+    </row>
+    <row r="14" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2">
         <v>53</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3052,20 +3638,20 @@
       <c r="BW14" s="2"/>
       <c r="BX14" s="2"/>
       <c r="BY14" s="2"/>
-      <c r="BZ14" s="44"/>
-    </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ14" s="43"/>
+    </row>
+    <row r="15" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2">
         <v>53</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3158,17 +3744,17 @@
       <c r="BW15" s="2"/>
       <c r="BX15" s="2"/>
       <c r="BY15" s="2"/>
-      <c r="BZ15" s="44"/>
-    </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ15" s="43"/>
+    </row>
+    <row r="16" spans="2:144" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2">
         <v>53</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>41</v>
+      <c r="D16" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>6</v>
@@ -3261,20 +3847,20 @@
       <c r="BW16" s="2"/>
       <c r="BX16" s="2"/>
       <c r="BY16" s="2"/>
-      <c r="BZ16" s="44"/>
-    </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ16" s="43"/>
+    </row>
+    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2">
         <v>53</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3357,7 +3943,7 @@
         <v>0.5</v>
       </c>
       <c r="BS17" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BT17" s="2"/>
       <c r="BU17" s="2"/>
@@ -3365,20 +3951,20 @@
       <c r="BW17" s="2"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
-      <c r="BZ17" s="44"/>
-    </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ17" s="43"/>
+    </row>
+    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2">
         <v>53</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3455,10 +4041,10 @@
       <c r="BP18" s="2"/>
       <c r="BQ18" s="2"/>
       <c r="BR18" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BS18" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BT18" s="2"/>
       <c r="BU18" s="2"/>
@@ -3466,20 +4052,20 @@
       <c r="BW18" s="2"/>
       <c r="BX18" s="2"/>
       <c r="BY18" s="2"/>
-      <c r="BZ18" s="44"/>
-    </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ18" s="43"/>
+    </row>
+    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2">
         <v>53</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3556,10 +4142,10 @@
       <c r="BP19" s="2"/>
       <c r="BQ19" s="2"/>
       <c r="BR19" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BS19" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
@@ -3567,20 +4153,20 @@
       <c r="BW19" s="2"/>
       <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
-      <c r="BZ19" s="44"/>
-    </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ19" s="43"/>
+    </row>
+    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2">
         <v>53</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3657,10 +4243,10 @@
       <c r="BP20" s="2"/>
       <c r="BQ20" s="2"/>
       <c r="BR20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BS20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
@@ -3668,20 +4254,20 @@
       <c r="BW20" s="2"/>
       <c r="BX20" s="2"/>
       <c r="BY20" s="2"/>
-      <c r="BZ20" s="44"/>
-    </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ20" s="43"/>
+    </row>
+    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2">
         <v>53</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3764,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="BS21" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BT21" s="2"/>
       <c r="BU21" s="2"/>
@@ -3772,20 +4358,20 @@
       <c r="BW21" s="2"/>
       <c r="BX21" s="2"/>
       <c r="BY21" s="2"/>
-      <c r="BZ21" s="44"/>
-    </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ21" s="43"/>
+    </row>
+    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2">
         <v>53</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3862,10 +4448,10 @@
       <c r="BP22" s="2"/>
       <c r="BQ22" s="2"/>
       <c r="BR22" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BS22" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BT22" s="2"/>
       <c r="BU22" s="2"/>
@@ -3873,20 +4459,20 @@
       <c r="BW22" s="2"/>
       <c r="BX22" s="2"/>
       <c r="BY22" s="2"/>
-      <c r="BZ22" s="44"/>
-    </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ22" s="43"/>
+    </row>
+    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2">
         <v>53</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>0</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3969,7 +4555,7 @@
         <v>0.01</v>
       </c>
       <c r="BS23" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BT23" s="2"/>
       <c r="BU23" s="2"/>
@@ -3977,16 +4563,16 @@
       <c r="BW23" s="2"/>
       <c r="BX23" s="2"/>
       <c r="BY23" s="2"/>
-      <c r="BZ23" s="44"/>
-    </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ23" s="43"/>
+    </row>
+    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="C24" s="10">
         <v>200</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <f>IF(OR(O24&lt;0, O24 = "-"),"missing",O24)</f>
         <v>1000</v>
       </c>
@@ -4065,17 +4651,17 @@
       <c r="BW24" s="2"/>
       <c r="BX24" s="2"/>
       <c r="BY24" s="2"/>
-      <c r="BZ24" s="43"/>
-    </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ24" s="42"/>
+    </row>
+    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="C25" s="10">
         <v>200</v>
       </c>
-      <c r="D25" s="29" t="str">
-        <f t="shared" ref="D25:D26" si="0">IF(OR(O25&lt;0, O25 = "-"),"missing",O25)</f>
+      <c r="D25" s="28" t="str">
+        <f t="shared" ref="D25:D26" si="4">IF(OR(O25&lt;0, O25 = "-"),"missing",O25)</f>
         <v>missing</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -4155,21 +4741,21 @@
       <c r="BW25" s="2"/>
       <c r="BX25" s="2"/>
       <c r="BY25" s="2"/>
-      <c r="BZ25" s="43"/>
-    </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ25" s="42"/>
+    </row>
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C26" s="10">
         <v>200</v>
       </c>
-      <c r="D26" s="29" t="str">
-        <f t="shared" si="0"/>
+      <c r="D26" s="28" t="str">
+        <f t="shared" si="4"/>
         <v>missing</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
@@ -4245,16 +4831,16 @@
       <c r="BW26" s="2"/>
       <c r="BX26" s="2"/>
       <c r="BY26" s="2"/>
-      <c r="BZ26" s="43"/>
-    </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ26" s="42"/>
+    </row>
+    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="C27" s="11">
         <v>203</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <f>IF(OR(I27&lt;0, I27 = "-"),"missing",I27)</f>
         <v>0</v>
       </c>
@@ -4333,16 +4919,16 @@
       <c r="BW27" s="2"/>
       <c r="BX27" s="2"/>
       <c r="BY27" s="2"/>
-      <c r="BZ27" s="43"/>
-    </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ27" s="42"/>
+    </row>
+    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="C28" s="11">
         <v>203</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <f>IF(OR(I28&lt;0, I28 = "-"),"missing",I28)</f>
         <v>0</v>
       </c>
@@ -4423,20 +5009,20 @@
       <c r="BW28" s="2"/>
       <c r="BX28" s="2"/>
       <c r="BY28" s="2"/>
-      <c r="BZ28" s="43"/>
-    </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ28" s="42"/>
+    </row>
+    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="C29" s="11">
         <v>203</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4512,16 +5098,16 @@
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
       <c r="BY29" s="2"/>
-      <c r="BZ29" s="43"/>
-    </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ29" s="42"/>
+    </row>
+    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2">
         <v>150</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <f>BT30</f>
         <v>0</v>
       </c>
@@ -4609,14 +5195,14 @@
       <c r="BX30" s="2"/>
       <c r="BY30" s="2"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2">
         <v>150</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <f>BT31</f>
         <v>1</v>
       </c>
@@ -4705,14 +5291,14 @@
       <c r="BX31" s="2"/>
       <c r="BY31" s="2"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2">
         <v>150</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="2"/>
@@ -4797,14 +5383,14 @@
       <c r="BX32" s="2"/>
       <c r="BY32" s="2"/>
     </row>
-    <row r="33" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2">
         <v>151</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>1</v>
       </c>
       <c r="E33" s="2"/>
@@ -4825,11 +5411,11 @@
       <c r="R33" s="2">
         <v>200</v>
       </c>
-      <c r="S33" s="11">
-        <v>0</v>
-      </c>
-      <c r="T33" s="2">
-        <v>1</v>
+      <c r="S33" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -4884,7 +5470,7 @@
       <c r="BS33" s="2"/>
       <c r="BT33" s="2">
         <f>MAX(S33,T33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU33" s="2"/>
       <c r="BV33" s="2"/>
@@ -4892,14 +5478,14 @@
       <c r="BX33" s="2"/>
       <c r="BY33" s="2"/>
     </row>
-    <row r="34" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2">
         <v>151</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>1</v>
       </c>
       <c r="E34" s="2"/>
@@ -4920,11 +5506,11 @@
       <c r="R34" s="2">
         <v>500</v>
       </c>
-      <c r="S34" s="11">
-        <v>1</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0</v>
+      <c r="S34" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -4978,8 +5564,8 @@
       <c r="BR34" s="2"/>
       <c r="BS34" s="2"/>
       <c r="BT34" s="2">
-        <f t="shared" ref="BT34:BT35" si="1">MAX(S34,T34)</f>
-        <v>1</v>
+        <f t="shared" ref="BT34:BT35" si="5">MAX(S34,T34)</f>
+        <v>0</v>
       </c>
       <c r="BU34" s="2"/>
       <c r="BV34" s="2"/>
@@ -4987,14 +5573,14 @@
       <c r="BX34" s="2"/>
       <c r="BY34" s="2"/>
     </row>
-    <row r="35" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2">
         <v>151</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
@@ -5015,11 +5601,11 @@
       <c r="R35" s="2">
         <v>500</v>
       </c>
-      <c r="S35" s="11">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0</v>
+      <c r="S35" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -5073,7 +5659,7 @@
       <c r="BR35" s="2"/>
       <c r="BS35" s="2"/>
       <c r="BT35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BU35" s="2"/>
@@ -5082,14 +5668,14 @@
       <c r="BX35" s="2"/>
       <c r="BY35" s="2"/>
     </row>
-    <row r="36" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="C36" s="2">
         <v>151</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="2"/>
@@ -5174,14 +5760,14 @@
       <c r="BX36" s="2"/>
       <c r="BY36" s="2"/>
     </row>
-    <row r="37" spans="2:83" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:83" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2">
         <v>65</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="24">
         <f>BR37/BS37</f>
         <v>1.5483870967741937</v>
       </c>
@@ -5276,16 +5862,16 @@
       <c r="BW37" s="2"/>
       <c r="BX37" s="2"/>
       <c r="BY37" s="2"/>
-      <c r="CA37" s="51"/>
-    </row>
-    <row r="38" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="CA37" s="50"/>
+    </row>
+    <row r="38" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2">
         <v>65</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="24">
         <f>BR38/BS38</f>
         <v>1.0833333333333333</v>
       </c>
@@ -5381,18 +5967,18 @@
       <c r="BX38" s="2"/>
       <c r="BY38" s="2"/>
     </row>
-    <row r="39" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="C39" s="2">
         <v>65</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -5483,18 +6069,18 @@
       <c r="BX39" s="2"/>
       <c r="BY39" s="2"/>
     </row>
-    <row r="40" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="C40" s="2">
         <v>65</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="29">
         <v>1000000</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -5586,20 +6172,20 @@
       <c r="BW40" s="2"/>
       <c r="BX40" s="2"/>
       <c r="BY40" s="2"/>
-      <c r="BZ40" s="45"/>
-    </row>
-    <row r="41" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="BZ40" s="44"/>
+    </row>
+    <row r="41" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="C41" s="2">
         <v>65</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="24">
         <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -5692,18 +6278,18 @@
       <c r="BX41" s="2"/>
       <c r="BY41" s="2"/>
     </row>
-    <row r="42" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C42" s="10">
         <v>65</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <v>0</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>76</v>
+      <c r="E42" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -5794,25 +6380,25 @@
       <c r="BW42" s="16"/>
       <c r="BX42" s="16"/>
       <c r="BY42" s="16"/>
-      <c r="BZ42" s="46"/>
-      <c r="CA42" s="21"/>
-      <c r="CB42" s="21"/>
-      <c r="CC42" s="21"/>
-      <c r="CD42" s="21"/>
-      <c r="CE42" s="21"/>
-    </row>
-    <row r="43" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="BZ42" s="45"/>
+      <c r="CA42" s="20"/>
+      <c r="CB42" s="20"/>
+      <c r="CC42" s="20"/>
+      <c r="CD42" s="20"/>
+      <c r="CE42" s="20"/>
+    </row>
+    <row r="43" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C43" s="11">
         <v>65</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>-1000000</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -5872,7 +6458,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
       <c r="AY43" s="2"/>
-      <c r="AZ43" s="21"/>
+      <c r="AZ43" s="20"/>
       <c r="BA43" s="2"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
@@ -5903,20 +6489,20 @@
       <c r="BW43" s="2"/>
       <c r="BX43" s="2"/>
       <c r="BY43" s="2"/>
-      <c r="BZ43" s="46"/>
-    </row>
-    <row r="44" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="BZ43" s="45"/>
+    </row>
+    <row r="44" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="C44" s="11">
         <v>65</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="29">
         <v>9999999</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -5998,7 +6584,7 @@
         <v>7</v>
       </c>
       <c r="BS44" s="2">
-        <f t="shared" ref="BS44:BS50" si="2">AVERAGE(X44,Y44,Z44)</f>
+        <f t="shared" ref="BS44:BS50" si="6">AVERAGE(X44,Y44,Z44)</f>
         <v>800</v>
       </c>
       <c r="BT44" s="2"/>
@@ -6007,20 +6593,20 @@
       <c r="BW44" s="2"/>
       <c r="BX44" s="2"/>
       <c r="BY44" s="2"/>
-      <c r="BZ44" s="46"/>
-    </row>
-    <row r="45" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="BZ44" s="45"/>
+    </row>
+    <row r="45" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2">
         <v>65</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -6099,11 +6685,11 @@
       <c r="BP45" s="2"/>
       <c r="BQ45" s="2"/>
       <c r="BR45" s="2">
-        <f t="shared" ref="BR45:BR50" si="3">AVERAGE(U45,V45,W45)</f>
+        <f t="shared" ref="BR45:BR50" si="7">AVERAGE(U45,V45,W45)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="BT45" s="2"/>
@@ -6113,18 +6699,18 @@
       <c r="BX45" s="2"/>
       <c r="BY45" s="2"/>
     </row>
-    <row r="46" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="C46" s="2">
         <v>65</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -6203,11 +6789,11 @@
       <c r="BP46" s="2"/>
       <c r="BQ46" s="2"/>
       <c r="BR46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-266.66666666666669</v>
       </c>
       <c r="BT46" s="2"/>
@@ -6217,18 +6803,18 @@
       <c r="BX46" s="2"/>
       <c r="BY46" s="2"/>
     </row>
-    <row r="47" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2">
         <v>65</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -6307,11 +6893,11 @@
       <c r="BP47" s="2"/>
       <c r="BQ47" s="2"/>
       <c r="BR47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT47" s="2"/>
@@ -6321,18 +6907,18 @@
       <c r="BX47" s="2"/>
       <c r="BY47" s="2"/>
     </row>
-    <row r="48" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2">
         <v>65</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -6411,11 +6997,11 @@
       <c r="BP48" s="2"/>
       <c r="BQ48" s="2"/>
       <c r="BR48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BS48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT48" s="2"/>
@@ -6425,18 +7011,18 @@
       <c r="BX48" s="2"/>
       <c r="BY48" s="2"/>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2">
         <v>65</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -6515,11 +7101,11 @@
       <c r="BP49" s="2"/>
       <c r="BQ49" s="2"/>
       <c r="BR49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-183.33333333333334</v>
       </c>
       <c r="BT49" s="2"/>
@@ -6529,18 +7115,18 @@
       <c r="BX49" s="2"/>
       <c r="BY49" s="2"/>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2">
         <v>65</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -6619,11 +7205,11 @@
       <c r="BP50" s="2"/>
       <c r="BQ50" s="2"/>
       <c r="BR50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="BS50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT50" s="2"/>
@@ -6633,14 +7219,14 @@
       <c r="BX50" s="2"/>
       <c r="BY50" s="2"/>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2">
         <v>66</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <f>BR51/BS51</f>
         <v>1.6</v>
       </c>
@@ -6722,7 +7308,7 @@
         <v>1600</v>
       </c>
       <c r="BS51" s="2">
-        <f t="shared" ref="BS51:BS56" si="4">AD51</f>
+        <f t="shared" ref="BS51:BS56" si="8">AD51</f>
         <v>1000</v>
       </c>
       <c r="BT51" s="2"/>
@@ -6732,19 +7318,19 @@
       <c r="BX51" s="2"/>
       <c r="BY51" s="2"/>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2">
         <v>66</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="31">
         <f>BR52/BS52</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -6823,7 +7409,7 @@
         <v>1300</v>
       </c>
       <c r="BS52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="BT52" s="2"/>
@@ -6833,18 +7419,18 @@
       <c r="BX52" s="2"/>
       <c r="BY52" s="2"/>
     </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2">
         <v>66</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -6922,7 +7508,7 @@
         <v>7</v>
       </c>
       <c r="BS53" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
       <c r="BT53" s="2"/>
@@ -6932,18 +7518,18 @@
       <c r="BX53" s="2"/>
       <c r="BY53" s="2"/>
     </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C54" s="2">
         <v>66</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="29">
         <v>1000000</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -7022,7 +7608,7 @@
         <v>1033.3333333333333</v>
       </c>
       <c r="BS54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BT54" s="2"/>
@@ -7031,20 +7617,20 @@
       <c r="BW54" s="2"/>
       <c r="BX54" s="2"/>
       <c r="BY54" s="2"/>
-      <c r="BZ54" s="45"/>
-    </row>
-    <row r="55" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ54" s="44"/>
+    </row>
+    <row r="55" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="C55" s="2">
         <v>66</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -7123,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BS55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BT55" s="2"/>
@@ -7132,20 +7718,20 @@
       <c r="BW55" s="2"/>
       <c r="BX55" s="2"/>
       <c r="BY55" s="2"/>
-      <c r="BZ55" s="46"/>
-    </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ55" s="45"/>
+    </row>
+    <row r="56" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="C56" s="2">
         <v>66</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="30">
         <v>0</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>76</v>
+      <c r="E56" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -7224,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="BS56" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-</v>
       </c>
       <c r="BT56" s="2"/>
@@ -7233,20 +7819,20 @@
       <c r="BW56" s="2"/>
       <c r="BX56" s="2"/>
       <c r="BY56" s="2"/>
-      <c r="BZ56" s="45"/>
-    </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ56" s="44"/>
+    </row>
+    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="C57" s="2">
         <v>66</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>-1000000</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -7333,20 +7919,20 @@
       <c r="BW57" s="2"/>
       <c r="BX57" s="2"/>
       <c r="BY57" s="2"/>
-      <c r="BZ57" s="46"/>
-    </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ57" s="45"/>
+    </row>
+    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="C58" s="2">
         <v>66</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="48">
         <v>9999999</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -7424,7 +8010,7 @@
         <v>7</v>
       </c>
       <c r="BS58" s="2">
-        <f t="shared" ref="BS58:BS64" si="5">AD58</f>
+        <f t="shared" ref="BS58:BS64" si="9">AD58</f>
         <v>200</v>
       </c>
       <c r="BT58" s="2"/>
@@ -7433,20 +8019,20 @@
       <c r="BW58" s="2"/>
       <c r="BX58" s="2"/>
       <c r="BY58" s="2"/>
-      <c r="BZ58" s="45"/>
-    </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ58" s="44"/>
+    </row>
+    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="C59" s="2">
         <v>66</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -7521,11 +8107,11 @@
       <c r="BP59" s="2"/>
       <c r="BQ59" s="2"/>
       <c r="BR59" s="2">
-        <f t="shared" ref="BR59:BR64" si="6">AVERAGE(AA59,AB59,AC59)</f>
+        <f t="shared" ref="BR59:BR64" si="10">AVERAGE(AA59,AB59,AC59)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
       <c r="BT59" s="2"/>
@@ -7535,18 +8121,18 @@
       <c r="BX59" s="2"/>
       <c r="BY59" s="2"/>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="C60" s="2">
         <v>66</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -7621,11 +8207,11 @@
       <c r="BP60" s="2"/>
       <c r="BQ60" s="2"/>
       <c r="BR60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BT60" s="2"/>
@@ -7635,18 +8221,18 @@
       <c r="BX60" s="2"/>
       <c r="BY60" s="2"/>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="C61" s="2">
         <v>66</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -7721,11 +8307,11 @@
       <c r="BP61" s="2"/>
       <c r="BQ61" s="2"/>
       <c r="BR61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="BT61" s="2"/>
@@ -7735,18 +8321,18 @@
       <c r="BX61" s="2"/>
       <c r="BY61" s="2"/>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="C62" s="2">
         <v>66</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -7821,11 +8407,11 @@
       <c r="BP62" s="2"/>
       <c r="BQ62" s="2"/>
       <c r="BR62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>333.33333333333331</v>
       </c>
       <c r="BS62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-300</v>
       </c>
       <c r="BT62" s="2"/>
@@ -7835,18 +8421,18 @@
       <c r="BX62" s="2"/>
       <c r="BY62" s="2"/>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="C63" s="2">
         <v>66</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -7921,11 +8507,11 @@
       <c r="BP63" s="2"/>
       <c r="BQ63" s="2"/>
       <c r="BR63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BS63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-500</v>
       </c>
       <c r="BT63" s="2"/>
@@ -7935,18 +8521,18 @@
       <c r="BX63" s="2"/>
       <c r="BY63" s="2"/>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="C64" s="2">
         <v>66</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -8021,11 +8607,11 @@
       <c r="BP64" s="2"/>
       <c r="BQ64" s="2"/>
       <c r="BR64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-100</v>
       </c>
       <c r="BT64" s="2"/>
@@ -8035,14 +8621,14 @@
       <c r="BX64" s="2"/>
       <c r="BY64" s="2"/>
     </row>
-    <row r="65" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C65" s="2">
         <v>218</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="24">
         <f>BR65/BS65</f>
         <v>0.64583333333333326</v>
       </c>
@@ -8138,14 +8724,14 @@
       <c r="BX65" s="2"/>
       <c r="BY65" s="2"/>
     </row>
-    <row r="66" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="C66" s="2">
         <v>218</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="24">
         <f>BR66/BS66</f>
         <v>0.92307692307692313</v>
       </c>
@@ -8241,18 +8827,18 @@
       <c r="BX66" s="2"/>
       <c r="BY66" s="2"/>
     </row>
-    <row r="67" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="C67" s="2">
         <v>218</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -8343,18 +8929,18 @@
       <c r="BX67" s="2"/>
       <c r="BY67" s="2"/>
     </row>
-    <row r="68" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="C68" s="2">
         <v>218</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="24">
         <v>0</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -8447,18 +9033,18 @@
       <c r="BX68" s="2"/>
       <c r="BY68" s="2"/>
     </row>
-    <row r="69" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C69" s="2">
         <v>218</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="32">
         <v>1000000</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -8551,17 +9137,17 @@
       <c r="BX69" s="2"/>
       <c r="BY69" s="2"/>
     </row>
-    <row r="70" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="C70" s="6">
         <v>218</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="38">
         <v>0</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -8652,25 +9238,25 @@
       <c r="BW70" s="16"/>
       <c r="BX70" s="16"/>
       <c r="BY70" s="16"/>
-      <c r="BZ70" s="46"/>
-      <c r="CA70" s="21"/>
-      <c r="CB70" s="21"/>
-      <c r="CC70" s="21"/>
-      <c r="CD70" s="21"/>
-      <c r="CE70" s="21"/>
-    </row>
-    <row r="71" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="BZ70" s="45"/>
+      <c r="CA70" s="20"/>
+      <c r="CB70" s="20"/>
+      <c r="CC70" s="20"/>
+      <c r="CD70" s="20"/>
+      <c r="CE70" s="20"/>
+    </row>
+    <row r="71" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C71" s="2">
         <v>218</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -8762,18 +9348,18 @@
       <c r="BX71" s="2"/>
       <c r="BY71" s="2"/>
     </row>
-    <row r="72" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2">
         <v>218</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -8855,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="BS72" s="2">
-        <f t="shared" ref="BS72:BS78" si="7">AVERAGE(AE72,AF72,AG72)</f>
+        <f t="shared" ref="BS72:BS78" si="11">AVERAGE(AE72,AF72,AG72)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="BT72" s="2"/>
@@ -8865,18 +9451,18 @@
       <c r="BX72" s="2"/>
       <c r="BY72" s="2"/>
     </row>
-    <row r="73" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C73" s="2">
         <v>218</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -8955,11 +9541,11 @@
       <c r="BP73" s="10"/>
       <c r="BQ73" s="10"/>
       <c r="BR73" s="2">
-        <f t="shared" ref="BR73:BR78" si="8">AVERAGE(AH73,AI73,AJ73)</f>
+        <f t="shared" ref="BR73:BR78" si="12">AVERAGE(AH73,AI73,AJ73)</f>
         <v>-333.33333333333331</v>
       </c>
       <c r="BS73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BT73" s="2"/>
@@ -8969,18 +9555,18 @@
       <c r="BX73" s="2"/>
       <c r="BY73" s="2"/>
     </row>
-    <row r="74" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="C74" s="2">
         <v>218</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -9059,11 +9645,11 @@
       <c r="BP74" s="10"/>
       <c r="BQ74" s="10"/>
       <c r="BR74" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-183.33333333333334</v>
       </c>
       <c r="BS74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BT74" s="2"/>
@@ -9073,18 +9659,18 @@
       <c r="BX74" s="2"/>
       <c r="BY74" s="2"/>
     </row>
-    <row r="75" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="C75" s="2">
         <v>218</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -9163,11 +9749,11 @@
       <c r="BP75" s="10"/>
       <c r="BQ75" s="10"/>
       <c r="BR75" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BS75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="BT75" s="2"/>
@@ -9177,18 +9763,18 @@
       <c r="BX75" s="2"/>
       <c r="BY75" s="2"/>
     </row>
-    <row r="76" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C76" s="2">
         <v>218</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -9267,11 +9853,11 @@
       <c r="BP76" s="10"/>
       <c r="BQ76" s="10"/>
       <c r="BR76" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="BS76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BT76" s="2"/>
@@ -9281,18 +9867,18 @@
       <c r="BX76" s="2"/>
       <c r="BY76" s="2"/>
     </row>
-    <row r="77" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="C77" s="2">
         <v>218</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -9371,11 +9957,11 @@
       <c r="BP77" s="10"/>
       <c r="BQ77" s="10"/>
       <c r="BR77" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-266.66666666666669</v>
       </c>
       <c r="BS77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BT77" s="2"/>
@@ -9385,18 +9971,18 @@
       <c r="BX77" s="2"/>
       <c r="BY77" s="2"/>
     </row>
-    <row r="78" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C78" s="2">
         <v>218</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -9475,11 +10061,11 @@
       <c r="BP78" s="10"/>
       <c r="BQ78" s="10"/>
       <c r="BR78" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BS78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BT78" s="2"/>
@@ -9489,18 +10075,18 @@
       <c r="BX78" s="2"/>
       <c r="BY78" s="2"/>
     </row>
-    <row r="79" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="C79" s="6">
         <v>218</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="19" t="s">
-        <v>77</v>
+      <c r="E79" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -9582,7 +10168,7 @@
         <v>7</v>
       </c>
       <c r="BS79" s="6">
-        <f t="shared" ref="BS79" si="9">AVERAGE(AE79,AF79,AG79)</f>
+        <f t="shared" ref="BS79" si="13">AVERAGE(AE79,AF79,AG79)</f>
         <v>0</v>
       </c>
       <c r="BT79" s="16"/>
@@ -9591,25 +10177,25 @@
       <c r="BW79" s="16"/>
       <c r="BX79" s="16"/>
       <c r="BY79" s="16"/>
-      <c r="BZ79" s="46"/>
-      <c r="CA79" s="21"/>
-      <c r="CB79" s="21"/>
-      <c r="CC79" s="21"/>
-      <c r="CD79" s="21"/>
-      <c r="CE79" s="21"/>
-    </row>
-    <row r="80" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BZ79" s="45"/>
+      <c r="CA79" s="20"/>
+      <c r="CB79" s="20"/>
+      <c r="CC79" s="20"/>
+      <c r="CD79" s="20"/>
+      <c r="CE79" s="20"/>
+    </row>
+    <row r="80" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="C80" s="6">
         <v>218</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="19" t="s">
-        <v>76</v>
+      <c r="E80" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -9688,7 +10274,7 @@
       <c r="BP80" s="16"/>
       <c r="BQ80" s="16"/>
       <c r="BR80" s="6">
-        <f t="shared" ref="BR80" si="10">AVERAGE(AH80,AI80,AJ80)</f>
+        <f t="shared" ref="BR80" si="14">AVERAGE(AH80,AI80,AJ80)</f>
         <v>0</v>
       </c>
       <c r="BS80" s="6" t="s">
@@ -9700,21 +10286,21 @@
       <c r="BW80" s="16"/>
       <c r="BX80" s="16"/>
       <c r="BY80" s="16"/>
-      <c r="BZ80" s="46"/>
-      <c r="CA80" s="21"/>
-      <c r="CB80" s="21"/>
-      <c r="CC80" s="21"/>
-      <c r="CD80" s="21"/>
-      <c r="CE80" s="21"/>
-    </row>
-    <row r="81" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ80" s="45"/>
+      <c r="CA80" s="20"/>
+      <c r="CB80" s="20"/>
+      <c r="CC80" s="20"/>
+      <c r="CD80" s="20"/>
+      <c r="CE80" s="20"/>
+    </row>
+    <row r="81" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C81" s="2">
         <v>219</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="24">
         <f>BR81/BS81</f>
         <v>0.8214285714285714</v>
       </c>
@@ -9810,14 +10396,14 @@
       <c r="BX81" s="2"/>
       <c r="BY81" s="2"/>
     </row>
-    <row r="82" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C82" s="2">
         <v>219</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="24">
         <f>BR82/BS82</f>
         <v>0.8</v>
       </c>
@@ -9913,18 +10499,18 @@
       <c r="BX82" s="2"/>
       <c r="BY82" s="2"/>
     </row>
-    <row r="83" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="C83" s="2">
         <v>219</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -10015,18 +10601,18 @@
       <c r="BX83" s="2"/>
       <c r="BY83" s="2"/>
     </row>
-    <row r="84" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="C84" s="2">
         <v>219</v>
       </c>
-      <c r="D84" s="25">
+      <c r="D84" s="24">
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -10119,18 +10705,18 @@
       <c r="BX84" s="2"/>
       <c r="BY84" s="2"/>
     </row>
-    <row r="85" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="C85" s="2">
         <v>219</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="32">
         <v>1000000</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -10223,18 +10809,18 @@
       <c r="BX85" s="2"/>
       <c r="BY85" s="2"/>
     </row>
-    <row r="86" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="C86" s="2">
         <v>219</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -10326,18 +10912,18 @@
       <c r="BX86" s="2"/>
       <c r="BY86" s="2"/>
     </row>
-    <row r="87" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C87" s="2">
         <v>219</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -10419,7 +11005,7 @@
         <v>7</v>
       </c>
       <c r="BS87" s="2">
-        <f t="shared" ref="BS87:BS94" si="11">AVERAGE(AK87,AL87,AM87)</f>
+        <f t="shared" ref="BS87:BS94" si="15">AVERAGE(AK87,AL87,AM87)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="BT87" s="2"/>
@@ -10429,18 +11015,18 @@
       <c r="BX87" s="2"/>
       <c r="BY87" s="2"/>
     </row>
-    <row r="88" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="C88" s="2">
         <v>219</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -10519,11 +11105,11 @@
       <c r="BP88" s="10"/>
       <c r="BQ88" s="10"/>
       <c r="BR88" s="2">
-        <f t="shared" ref="BR88:BR93" si="12">AVERAGE(AN88,AO88:AP88)</f>
+        <f t="shared" ref="BR88:BR93" si="16">AVERAGE(AN88,AO88:AP88)</f>
         <v>-350</v>
       </c>
       <c r="BS88" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>366.66666666666669</v>
       </c>
       <c r="BT88" s="2"/>
@@ -10533,18 +11119,18 @@
       <c r="BX88" s="2"/>
       <c r="BY88" s="2"/>
     </row>
-    <row r="89" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="C89" s="2">
         <v>219</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -10623,11 +11209,11 @@
       <c r="BP89" s="10"/>
       <c r="BQ89" s="10"/>
       <c r="BR89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BS89" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BT89" s="2"/>
@@ -10637,18 +11223,18 @@
       <c r="BX89" s="2"/>
       <c r="BY89" s="2"/>
     </row>
-    <row r="90" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="C90" s="2">
         <v>219</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -10727,11 +11313,11 @@
       <c r="BP90" s="10"/>
       <c r="BQ90" s="10"/>
       <c r="BR90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-216.66666666666666</v>
       </c>
       <c r="BS90" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-100</v>
       </c>
       <c r="BT90" s="2"/>
@@ -10741,18 +11327,18 @@
       <c r="BX90" s="2"/>
       <c r="BY90" s="2"/>
     </row>
-    <row r="91" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="C91" s="2">
         <v>219</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -10831,11 +11417,11 @@
       <c r="BP91" s="10"/>
       <c r="BQ91" s="10"/>
       <c r="BR91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>566.66666666666663</v>
       </c>
       <c r="BS91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-500</v>
       </c>
       <c r="BT91" s="2"/>
@@ -10845,18 +11431,18 @@
       <c r="BX91" s="2"/>
       <c r="BY91" s="2"/>
     </row>
-    <row r="92" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="C92" s="2">
         <v>219</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -10935,11 +11521,11 @@
       <c r="BP92" s="10"/>
       <c r="BQ92" s="10"/>
       <c r="BR92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BS92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-400</v>
       </c>
       <c r="BT92" s="2"/>
@@ -10949,18 +11535,18 @@
       <c r="BX92" s="2"/>
       <c r="BY92" s="2"/>
     </row>
-    <row r="93" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="C93" s="2">
         <v>219</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -11039,11 +11625,11 @@
       <c r="BP93" s="10"/>
       <c r="BQ93" s="10"/>
       <c r="BR93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BS93" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-683.33333333333337</v>
       </c>
       <c r="BT93" s="2"/>
@@ -11053,18 +11639,18 @@
       <c r="BX93" s="2"/>
       <c r="BY93" s="2"/>
     </row>
-    <row r="94" spans="2:78" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="C94" s="2">
         <v>219</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="19" t="s">
-        <v>77</v>
+      <c r="E94" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
@@ -11097,13 +11683,13 @@
       <c r="AH94" s="16"/>
       <c r="AI94" s="16"/>
       <c r="AJ94" s="16"/>
-      <c r="AK94" s="22">
+      <c r="AK94" s="21">
         <v>-500</v>
       </c>
-      <c r="AL94" s="22">
+      <c r="AL94" s="21">
         <v>300</v>
       </c>
-      <c r="AM94" s="22">
+      <c r="AM94" s="21">
         <v>200</v>
       </c>
       <c r="AN94" s="16" t="s">
@@ -11146,7 +11732,7 @@
         <v>7</v>
       </c>
       <c r="BS94" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BT94" s="16"/>
@@ -11155,20 +11741,20 @@
       <c r="BW94" s="2"/>
       <c r="BX94" s="2"/>
       <c r="BY94" s="2"/>
-      <c r="BZ94" s="46"/>
-    </row>
-    <row r="95" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ94" s="45"/>
+    </row>
+    <row r="95" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2">
         <v>219</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="19" t="s">
-        <v>76</v>
+      <c r="E95" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -11210,42 +11796,42 @@
       <c r="AM95" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AN95" s="22">
+      <c r="AN95" s="21">
         <v>-500</v>
       </c>
-      <c r="AO95" s="22">
+      <c r="AO95" s="21">
         <v>300</v>
       </c>
-      <c r="AP95" s="22">
+      <c r="AP95" s="21">
         <v>200</v>
       </c>
-      <c r="AQ95" s="22"/>
-      <c r="AR95" s="22"/>
-      <c r="AS95" s="22"/>
-      <c r="AT95" s="22"/>
-      <c r="AU95" s="22"/>
-      <c r="AV95" s="22"/>
-      <c r="AW95" s="22"/>
-      <c r="AX95" s="22"/>
-      <c r="AY95" s="22"/>
-      <c r="AZ95" s="22"/>
-      <c r="BA95" s="22"/>
-      <c r="BB95" s="22"/>
-      <c r="BC95" s="22"/>
-      <c r="BD95" s="22"/>
-      <c r="BE95" s="22"/>
-      <c r="BF95" s="22"/>
-      <c r="BG95" s="22"/>
-      <c r="BH95" s="22"/>
-      <c r="BI95" s="22"/>
-      <c r="BJ95" s="22"/>
-      <c r="BK95" s="22"/>
-      <c r="BL95" s="22"/>
-      <c r="BM95" s="22"/>
-      <c r="BN95" s="22"/>
-      <c r="BO95" s="22"/>
-      <c r="BP95" s="22"/>
-      <c r="BQ95" s="22"/>
+      <c r="AQ95" s="21"/>
+      <c r="AR95" s="21"/>
+      <c r="AS95" s="21"/>
+      <c r="AT95" s="21"/>
+      <c r="AU95" s="21"/>
+      <c r="AV95" s="21"/>
+      <c r="AW95" s="21"/>
+      <c r="AX95" s="21"/>
+      <c r="AY95" s="21"/>
+      <c r="AZ95" s="21"/>
+      <c r="BA95" s="21"/>
+      <c r="BB95" s="21"/>
+      <c r="BC95" s="21"/>
+      <c r="BD95" s="21"/>
+      <c r="BE95" s="21"/>
+      <c r="BF95" s="21"/>
+      <c r="BG95" s="21"/>
+      <c r="BH95" s="21"/>
+      <c r="BI95" s="21"/>
+      <c r="BJ95" s="21"/>
+      <c r="BK95" s="21"/>
+      <c r="BL95" s="21"/>
+      <c r="BM95" s="21"/>
+      <c r="BN95" s="21"/>
+      <c r="BO95" s="21"/>
+      <c r="BP95" s="21"/>
+      <c r="BQ95" s="21"/>
       <c r="BR95" s="6">
         <f>AVERAGE(AN95,AO95:AP95)</f>
         <v>0</v>
@@ -11259,16 +11845,16 @@
       <c r="BW95" s="2"/>
       <c r="BX95" s="2"/>
       <c r="BY95" s="2"/>
-      <c r="BZ95" s="46"/>
-    </row>
-    <row r="96" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BZ95" s="45"/>
+    </row>
+    <row r="96" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="C96" s="2">
         <v>91</v>
       </c>
-      <c r="D96" s="25">
+      <c r="D96" s="24">
         <f>BR96/BS96</f>
         <v>1.5483870967741937</v>
       </c>
@@ -11364,14 +11950,14 @@
       <c r="BX96" s="2"/>
       <c r="BY96" s="2"/>
     </row>
-    <row r="97" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="C97" s="2">
         <v>91</v>
       </c>
-      <c r="D97" s="25">
+      <c r="D97" s="24">
         <f>BR97/BS97</f>
         <v>1.0833333333333333</v>
       </c>
@@ -11453,7 +12039,7 @@
       <c r="BP97" s="6"/>
       <c r="BQ97" s="6"/>
       <c r="BR97" s="2">
-        <f t="shared" ref="BR97:BR110" si="13">AVERAGE(AQ97,AR97,AS97)</f>
+        <f t="shared" ref="BR97:BR110" si="17">AVERAGE(AQ97,AR97,AS97)</f>
         <v>1300</v>
       </c>
       <c r="BS97" s="2">
@@ -11467,18 +12053,18 @@
       <c r="BX97" s="2"/>
       <c r="BY97" s="2"/>
     </row>
-    <row r="98" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="C98" s="2">
         <v>91</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -11569,18 +12155,18 @@
       <c r="BX98" s="2"/>
       <c r="BY98" s="2"/>
     </row>
-    <row r="99" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C99" s="2">
         <v>91</v>
       </c>
-      <c r="D99" s="38">
+      <c r="D99" s="37">
         <v>-9999999</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -11659,7 +12245,7 @@
       <c r="BP99" s="6"/>
       <c r="BQ99" s="6"/>
       <c r="BR99" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BS99" s="2">
@@ -11673,14 +12259,14 @@
       <c r="BX99" s="2"/>
       <c r="BY99" s="2"/>
     </row>
-    <row r="100" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="C100" s="2">
         <v>91</v>
       </c>
-      <c r="D100" s="38">
+      <c r="D100" s="37">
         <v>0</v>
       </c>
       <c r="E100" s="2"/>
@@ -11761,7 +12347,7 @@
       <c r="BP100" s="6"/>
       <c r="BQ100" s="6"/>
       <c r="BR100" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BS100" s="2">
@@ -11775,18 +12361,18 @@
       <c r="BX100" s="2"/>
       <c r="BY100" s="2"/>
     </row>
-    <row r="101" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2">
         <v>91</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="22">
         <v>1000000</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -11865,7 +12451,7 @@
       <c r="BP101" s="6"/>
       <c r="BQ101" s="6"/>
       <c r="BR101" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1033.3333333333333</v>
       </c>
       <c r="BS101" s="2">
@@ -11879,18 +12465,18 @@
       <c r="BX101" s="2"/>
       <c r="BY101" s="2"/>
     </row>
-    <row r="102" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C102" s="2">
         <v>91</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D102" s="34">
         <v>9999999</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -11982,18 +12568,18 @@
       <c r="BX102" s="2"/>
       <c r="BY102" s="2"/>
     </row>
-    <row r="103" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="C103" s="2">
         <v>91</v>
       </c>
-      <c r="D103" s="36">
+      <c r="D103" s="35">
         <v>-1000000</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -12072,7 +12658,7 @@
       <c r="BP103" s="10"/>
       <c r="BQ103" s="10"/>
       <c r="BR103" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>466.66666666666669</v>
       </c>
       <c r="BS103" s="2" t="s">
@@ -12085,18 +12671,18 @@
       <c r="BX103" s="2"/>
       <c r="BY103" s="2"/>
     </row>
-    <row r="104" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="C104" s="2">
         <v>91</v>
       </c>
-      <c r="D104" s="34">
+      <c r="D104" s="33">
         <v>0</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -12175,11 +12761,11 @@
       <c r="BP104" s="10"/>
       <c r="BQ104" s="10"/>
       <c r="BR104" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BS104" s="2">
-        <f t="shared" ref="BS104:BS109" si="14">AVERAGE(AT104,AU104,AV104)</f>
+        <f t="shared" ref="BS104:BS109" si="18">AVERAGE(AT104,AU104,AV104)</f>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT104" s="2"/>
@@ -12189,18 +12775,18 @@
       <c r="BX104" s="2"/>
       <c r="BY104" s="2"/>
     </row>
-    <row r="105" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C105" s="2">
         <v>91</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -12279,11 +12865,11 @@
       <c r="BP105" s="10"/>
       <c r="BQ105" s="10"/>
       <c r="BR105" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS105" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-183.33333333333334</v>
       </c>
       <c r="BT105" s="2"/>
@@ -12293,18 +12879,18 @@
       <c r="BX105" s="2"/>
       <c r="BY105" s="2"/>
     </row>
-    <row r="106" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="C106" s="2">
         <v>91</v>
       </c>
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -12383,11 +12969,11 @@
       <c r="BP106" s="10"/>
       <c r="BQ106" s="10"/>
       <c r="BR106" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="BS106" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT106" s="2"/>
@@ -12397,18 +12983,18 @@
       <c r="BX106" s="2"/>
       <c r="BY106" s="2"/>
     </row>
-    <row r="107" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="C107" s="2">
         <v>91</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -12487,11 +13073,11 @@
       <c r="BP107" s="10"/>
       <c r="BQ107" s="10"/>
       <c r="BR107" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS107" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>300</v>
       </c>
       <c r="BT107" s="2"/>
@@ -12501,18 +13087,18 @@
       <c r="BX107" s="2"/>
       <c r="BY107" s="2"/>
     </row>
-    <row r="108" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="C108" s="2">
         <v>91</v>
       </c>
-      <c r="D108" s="25" t="s">
+      <c r="D108" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -12591,11 +13177,11 @@
       <c r="BP108" s="10"/>
       <c r="BQ108" s="10"/>
       <c r="BR108" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS108" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-266.66666666666669</v>
       </c>
       <c r="BT108" s="2"/>
@@ -12605,18 +13191,18 @@
       <c r="BX108" s="2"/>
       <c r="BY108" s="2"/>
     </row>
-    <row r="109" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="C109" s="6">
         <v>91</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -12695,11 +13281,11 @@
       <c r="BP109" s="10"/>
       <c r="BQ109" s="10"/>
       <c r="BR109" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS109" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BT109" s="2"/>
@@ -12709,18 +13295,18 @@
       <c r="BX109" s="2"/>
       <c r="BY109" s="2"/>
     </row>
-    <row r="110" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="C110" s="6">
         <v>91</v>
       </c>
-      <c r="D110" s="34">
+      <c r="D110" s="33">
         <v>0</v>
       </c>
-      <c r="E110" s="19" t="s">
-        <v>167</v>
+      <c r="E110" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -12759,13 +13345,13 @@
       <c r="AN110" s="16"/>
       <c r="AO110" s="16"/>
       <c r="AP110" s="16"/>
-      <c r="AQ110" s="22">
+      <c r="AQ110" s="21">
         <v>-500</v>
       </c>
-      <c r="AR110" s="22">
+      <c r="AR110" s="21">
         <v>300</v>
       </c>
-      <c r="AS110" s="22">
+      <c r="AS110" s="21">
         <v>200</v>
       </c>
       <c r="AT110" s="16" t="s">
@@ -12799,7 +13385,7 @@
       <c r="BP110" s="16"/>
       <c r="BQ110" s="16"/>
       <c r="BR110" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BS110" s="16" t="s">
@@ -12811,25 +13397,25 @@
       <c r="BW110" s="16"/>
       <c r="BX110" s="16"/>
       <c r="BY110" s="16"/>
-      <c r="BZ110" s="46"/>
-      <c r="CA110" s="21"/>
-      <c r="CB110" s="21"/>
-      <c r="CC110" s="21"/>
-      <c r="CD110" s="21"/>
-      <c r="CE110" s="21"/>
-    </row>
-    <row r="111" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="47" t="s">
-        <v>191</v>
+      <c r="BZ110" s="45"/>
+      <c r="CA110" s="20"/>
+      <c r="CB110" s="20"/>
+      <c r="CC110" s="20"/>
+      <c r="CD110" s="20"/>
+      <c r="CE110" s="20"/>
+    </row>
+    <row r="111" spans="2:83" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="46" t="s">
+        <v>243</v>
       </c>
       <c r="C111" s="10">
         <v>91</v>
       </c>
-      <c r="D111" s="35">
+      <c r="D111" s="34">
         <v>9999999</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
@@ -12877,36 +13463,36 @@
       <c r="AS111" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AT111" s="22">
+      <c r="AT111" s="21">
         <v>-500</v>
       </c>
-      <c r="AU111" s="22">
+      <c r="AU111" s="21">
         <v>300</v>
       </c>
-      <c r="AV111" s="22">
+      <c r="AV111" s="21">
         <v>200</v>
       </c>
-      <c r="AW111" s="22"/>
-      <c r="AX111" s="22"/>
-      <c r="AY111" s="22"/>
-      <c r="AZ111" s="22"/>
-      <c r="BA111" s="22"/>
-      <c r="BB111" s="22"/>
-      <c r="BC111" s="22"/>
-      <c r="BD111" s="22"/>
-      <c r="BE111" s="22"/>
-      <c r="BF111" s="22"/>
-      <c r="BG111" s="22"/>
-      <c r="BH111" s="22"/>
-      <c r="BI111" s="22"/>
-      <c r="BJ111" s="22"/>
-      <c r="BK111" s="22"/>
-      <c r="BL111" s="22"/>
-      <c r="BM111" s="22"/>
-      <c r="BN111" s="22"/>
-      <c r="BO111" s="22"/>
-      <c r="BP111" s="22"/>
-      <c r="BQ111" s="22"/>
+      <c r="AW111" s="21"/>
+      <c r="AX111" s="21"/>
+      <c r="AY111" s="21"/>
+      <c r="AZ111" s="21"/>
+      <c r="BA111" s="21"/>
+      <c r="BB111" s="21"/>
+      <c r="BC111" s="21"/>
+      <c r="BD111" s="21"/>
+      <c r="BE111" s="21"/>
+      <c r="BF111" s="21"/>
+      <c r="BG111" s="21"/>
+      <c r="BH111" s="21"/>
+      <c r="BI111" s="21"/>
+      <c r="BJ111" s="21"/>
+      <c r="BK111" s="21"/>
+      <c r="BL111" s="21"/>
+      <c r="BM111" s="21"/>
+      <c r="BN111" s="21"/>
+      <c r="BO111" s="21"/>
+      <c r="BP111" s="21"/>
+      <c r="BQ111" s="21"/>
       <c r="BR111" s="6" t="s">
         <v>7</v>
       </c>
@@ -12919,21 +13505,21 @@
       <c r="BW111" s="16"/>
       <c r="BX111" s="16"/>
       <c r="BY111" s="16"/>
-      <c r="BZ111" s="46"/>
-      <c r="CA111" s="21"/>
-      <c r="CB111" s="21"/>
-      <c r="CC111" s="21"/>
-      <c r="CD111" s="21"/>
-      <c r="CE111" s="21"/>
-    </row>
-    <row r="112" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="BZ111" s="45"/>
+      <c r="CA111" s="20"/>
+      <c r="CB111" s="20"/>
+      <c r="CC111" s="20"/>
+      <c r="CD111" s="20"/>
+      <c r="CE111" s="20"/>
+    </row>
+    <row r="112" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="C112" s="2">
         <v>92</v>
       </c>
-      <c r="D112" s="25">
+      <c r="D112" s="24">
         <f>BR112/BS112</f>
         <v>1.5483870967741937</v>
       </c>
@@ -13029,14 +13615,14 @@
       <c r="BX112" s="2"/>
       <c r="BY112" s="2"/>
     </row>
-    <row r="113" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="C113" s="2">
         <v>92</v>
       </c>
-      <c r="D113" s="25">
+      <c r="D113" s="24">
         <f>BR113/BS113</f>
         <v>1.0833333333333333</v>
       </c>
@@ -13132,19 +13718,19 @@
       <c r="BX113" s="2"/>
       <c r="BY113" s="2"/>
     </row>
-    <row r="114" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="C114" s="2">
         <v>92</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="24">
         <f>BR114/BS114</f>
         <v>0</v>
       </c>
-      <c r="E114" s="41" t="s">
-        <v>98</v>
+      <c r="E114" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -13237,18 +13823,18 @@
       <c r="BX114" s="2"/>
       <c r="BY114" s="2"/>
     </row>
-    <row r="115" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="C115" s="2">
         <v>92</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -13339,18 +13925,18 @@
       <c r="BX115" s="2"/>
       <c r="BY115" s="2"/>
     </row>
-    <row r="116" spans="2:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="C116" s="2">
         <v>92</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D116" s="22">
         <v>1000000</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -13443,18 +14029,18 @@
       <c r="BX116" s="2"/>
       <c r="BY116" s="2"/>
     </row>
-    <row r="117" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="C117" s="2">
         <v>92</v>
       </c>
-      <c r="D117" s="38">
+      <c r="D117" s="37">
         <v>-9999999</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -13547,18 +14133,18 @@
       <c r="BX117" s="2"/>
       <c r="BY117" s="2"/>
     </row>
-    <row r="118" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="C118" s="2">
         <v>92</v>
       </c>
-      <c r="D118" s="38">
+      <c r="D118" s="37">
         <v>9999999</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -13650,18 +14236,18 @@
       <c r="BX118" s="2"/>
       <c r="BY118" s="2"/>
     </row>
-    <row r="119" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C119" s="2">
         <v>92</v>
       </c>
-      <c r="D119" s="40">
+      <c r="D119" s="39">
         <v>-1000000</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -13740,7 +14326,7 @@
       <c r="BP119" s="10"/>
       <c r="BQ119" s="10"/>
       <c r="BR119" s="2">
-        <f t="shared" ref="BR119:BR126" si="15">AVERAGE(AW119,AX119,AY119)</f>
+        <f t="shared" ref="BR119:BR126" si="19">AVERAGE(AW119,AX119,AY119)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="BS119" s="2" t="s">
@@ -13753,19 +14339,19 @@
       <c r="BX119" s="2"/>
       <c r="BY119" s="2"/>
     </row>
-    <row r="120" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="C120" s="2">
         <v>92</v>
       </c>
-      <c r="D120" s="25">
+      <c r="D120" s="24">
         <f>BR120/BS120</f>
         <v>0</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -13844,11 +14430,11 @@
       <c r="BP120" s="10"/>
       <c r="BQ120" s="10"/>
       <c r="BR120" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BS120" s="2">
-        <f t="shared" ref="BS120:BS125" si="16">AVERAGE(AZ120,BA120,BB120)</f>
+        <f t="shared" ref="BS120:BS125" si="20">AVERAGE(AZ120,BA120,BB120)</f>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT120" s="2"/>
@@ -13858,18 +14444,18 @@
       <c r="BX120" s="2"/>
       <c r="BY120" s="2"/>
     </row>
-    <row r="121" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="C121" s="2">
         <v>92</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -13948,11 +14534,11 @@
       <c r="BP121" s="10"/>
       <c r="BQ121" s="10"/>
       <c r="BR121" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS121" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-183.33333333333334</v>
       </c>
       <c r="BT121" s="2"/>
@@ -13962,18 +14548,18 @@
       <c r="BX121" s="2"/>
       <c r="BY121" s="2"/>
     </row>
-    <row r="122" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="C122" s="2">
         <v>92</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -14052,11 +14638,11 @@
       <c r="BP122" s="10"/>
       <c r="BQ122" s="10"/>
       <c r="BR122" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="BS122" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT122" s="2"/>
@@ -14066,18 +14652,18 @@
       <c r="BX122" s="2"/>
       <c r="BY122" s="2"/>
     </row>
-    <row r="123" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="C123" s="2">
         <v>92</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -14156,11 +14742,11 @@
       <c r="BP123" s="10"/>
       <c r="BQ123" s="10"/>
       <c r="BR123" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS123" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="BT123" s="2"/>
@@ -14170,18 +14756,18 @@
       <c r="BX123" s="2"/>
       <c r="BY123" s="2"/>
     </row>
-    <row r="124" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C124" s="2">
         <v>92</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -14260,11 +14846,11 @@
       <c r="BP124" s="10"/>
       <c r="BQ124" s="10"/>
       <c r="BR124" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS124" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-266.66666666666669</v>
       </c>
       <c r="BT124" s="2"/>
@@ -14274,18 +14860,18 @@
       <c r="BX124" s="2"/>
       <c r="BY124" s="2"/>
     </row>
-    <row r="125" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="C125" s="2">
         <v>92</v>
       </c>
-      <c r="D125" s="25" t="s">
+      <c r="D125" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -14364,11 +14950,11 @@
       <c r="BP125" s="10"/>
       <c r="BQ125" s="10"/>
       <c r="BR125" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS125" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BT125" s="2"/>
@@ -14378,18 +14964,18 @@
       <c r="BX125" s="2"/>
       <c r="BY125" s="2"/>
     </row>
-    <row r="126" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="C126" s="6">
         <v>92</v>
       </c>
-      <c r="D126" s="34">
+      <c r="D126" s="33">
         <v>0</v>
       </c>
-      <c r="E126" s="19" t="s">
-        <v>167</v>
+      <c r="E126" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -14434,13 +15020,13 @@
       <c r="AT126" s="2"/>
       <c r="AU126" s="2"/>
       <c r="AV126" s="2"/>
-      <c r="AW126" s="22">
+      <c r="AW126" s="21">
         <v>-500</v>
       </c>
-      <c r="AX126" s="22">
+      <c r="AX126" s="21">
         <v>300</v>
       </c>
-      <c r="AY126" s="22">
+      <c r="AY126" s="21">
         <v>200</v>
       </c>
       <c r="AZ126" s="16" t="s">
@@ -14468,7 +15054,7 @@
       <c r="BP126" s="16"/>
       <c r="BQ126" s="16"/>
       <c r="BR126" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BS126" s="16" t="s">
@@ -14481,18 +15067,18 @@
       <c r="BX126" s="2"/>
       <c r="BY126" s="2"/>
     </row>
-    <row r="127" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="C127" s="6">
         <v>92</v>
       </c>
-      <c r="D127" s="35">
+      <c r="D127" s="34">
         <v>9999999</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -14546,30 +15132,30 @@
       <c r="AY127" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AZ127" s="22">
+      <c r="AZ127" s="21">
         <v>-500</v>
       </c>
-      <c r="BA127" s="22">
+      <c r="BA127" s="21">
         <v>300</v>
       </c>
-      <c r="BB127" s="22">
+      <c r="BB127" s="21">
         <v>200</v>
       </c>
-      <c r="BC127" s="22"/>
-      <c r="BD127" s="22"/>
-      <c r="BE127" s="22"/>
-      <c r="BF127" s="22"/>
-      <c r="BG127" s="22"/>
-      <c r="BH127" s="22"/>
-      <c r="BI127" s="22"/>
-      <c r="BJ127" s="22"/>
-      <c r="BK127" s="22"/>
-      <c r="BL127" s="22"/>
-      <c r="BM127" s="22"/>
-      <c r="BN127" s="22"/>
-      <c r="BO127" s="22"/>
-      <c r="BP127" s="22"/>
-      <c r="BQ127" s="22"/>
+      <c r="BC127" s="21"/>
+      <c r="BD127" s="21"/>
+      <c r="BE127" s="21"/>
+      <c r="BF127" s="21"/>
+      <c r="BG127" s="21"/>
+      <c r="BH127" s="21"/>
+      <c r="BI127" s="21"/>
+      <c r="BJ127" s="21"/>
+      <c r="BK127" s="21"/>
+      <c r="BL127" s="21"/>
+      <c r="BM127" s="21"/>
+      <c r="BN127" s="21"/>
+      <c r="BO127" s="21"/>
+      <c r="BP127" s="21"/>
+      <c r="BQ127" s="21"/>
       <c r="BR127" s="6" t="s">
         <v>7</v>
       </c>
@@ -14584,14 +15170,14 @@
       <c r="BX127" s="2"/>
       <c r="BY127" s="2"/>
     </row>
-    <row r="128" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="C128" s="2">
         <v>93</v>
       </c>
-      <c r="D128" s="25">
+      <c r="D128" s="24">
         <f>BR128/BS128</f>
         <v>1.5483870967741937</v>
       </c>
@@ -14687,15 +15273,15 @@
       <c r="BX128" s="2"/>
       <c r="BY128" s="2"/>
     </row>
-    <row r="129" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="C129" s="2">
         <v>93</v>
       </c>
-      <c r="D129" s="25">
-        <f t="shared" ref="D129:D130" si="17">BR129/BS129</f>
+      <c r="D129" s="24">
+        <f t="shared" ref="D129:D130" si="21">BR129/BS129</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="E129" s="2"/>
@@ -14790,15 +15376,15 @@
       <c r="BX129" s="2"/>
       <c r="BY129" s="2"/>
     </row>
-    <row r="130" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C130" s="2">
         <v>93</v>
       </c>
-      <c r="D130" s="25">
-        <f t="shared" si="17"/>
+      <c r="D130" s="24">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E130" s="2"/>
@@ -14893,18 +15479,18 @@
       <c r="BX130" s="2"/>
       <c r="BY130" s="2"/>
     </row>
-    <row r="131" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="C131" s="2">
         <v>93</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D131" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -14995,18 +15581,18 @@
       <c r="BX131" s="2"/>
       <c r="BY131" s="2"/>
     </row>
-    <row r="132" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C132" s="2">
         <v>93</v>
       </c>
-      <c r="D132" s="23">
+      <c r="D132" s="22">
         <v>1000000</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -15099,18 +15685,18 @@
       <c r="BX132" s="2"/>
       <c r="BY132" s="2"/>
     </row>
-    <row r="133" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="C133" s="2">
         <v>93</v>
       </c>
-      <c r="D133" s="38">
+      <c r="D133" s="37">
         <v>-9999999</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -15203,18 +15789,18 @@
       <c r="BX133" s="2"/>
       <c r="BY133" s="2"/>
     </row>
-    <row r="134" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C134" s="2">
         <v>93</v>
       </c>
-      <c r="D134" s="38">
+      <c r="D134" s="37">
         <v>9999999</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -15306,18 +15892,18 @@
       <c r="BX134" s="2"/>
       <c r="BY134" s="2"/>
     </row>
-    <row r="135" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="C135" s="2">
         <v>93</v>
       </c>
-      <c r="D135" s="40">
+      <c r="D135" s="39">
         <v>-1000000</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -15396,7 +15982,7 @@
       <c r="BP135" s="10"/>
       <c r="BQ135" s="10"/>
       <c r="BR135" s="2">
-        <f t="shared" ref="BR135:BR142" si="18">AVERAGE(BC135,BD135,BE135)</f>
+        <f t="shared" ref="BR135:BR142" si="22">AVERAGE(BC135,BD135,BE135)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="BS135" s="2" t="s">
@@ -15409,19 +15995,19 @@
       <c r="BX135" s="2"/>
       <c r="BY135" s="2"/>
     </row>
-    <row r="136" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="C136" s="2">
         <v>93</v>
       </c>
-      <c r="D136" s="25">
+      <c r="D136" s="24">
         <f>BR136/BS136</f>
         <v>0</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -15500,11 +16086,11 @@
       <c r="BP136" s="10"/>
       <c r="BQ136" s="10"/>
       <c r="BR136" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BS136" s="2">
-        <f t="shared" ref="BS136:BS141" si="19">AVERAGE(BF136,BG136,BH136)</f>
+        <f t="shared" ref="BS136:BS141" si="23">AVERAGE(BF136,BG136,BH136)</f>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT136" s="2"/>
@@ -15514,18 +16100,18 @@
       <c r="BX136" s="2"/>
       <c r="BY136" s="2"/>
     </row>
-    <row r="137" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C137" s="2">
         <v>93</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -15604,11 +16190,11 @@
       <c r="BP137" s="10"/>
       <c r="BQ137" s="10"/>
       <c r="BR137" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS137" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-183.33333333333334</v>
       </c>
       <c r="BT137" s="2"/>
@@ -15618,18 +16204,18 @@
       <c r="BX137" s="2"/>
       <c r="BY137" s="2"/>
     </row>
-    <row r="138" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="C138" s="2">
         <v>93</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -15708,11 +16294,11 @@
       <c r="BP138" s="10"/>
       <c r="BQ138" s="10"/>
       <c r="BR138" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="BS138" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="BT138" s="2"/>
@@ -15722,18 +16308,18 @@
       <c r="BX138" s="2"/>
       <c r="BY138" s="2"/>
     </row>
-    <row r="139" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C139" s="2">
         <v>93</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -15812,11 +16398,11 @@
       <c r="BP139" s="10"/>
       <c r="BQ139" s="10"/>
       <c r="BR139" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS139" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>300</v>
       </c>
       <c r="BT139" s="2"/>
@@ -15826,18 +16412,18 @@
       <c r="BX139" s="2"/>
       <c r="BY139" s="2"/>
     </row>
-    <row r="140" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="C140" s="2">
         <v>93</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -15916,11 +16502,11 @@
       <c r="BP140" s="10"/>
       <c r="BQ140" s="10"/>
       <c r="BR140" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS140" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-266.66666666666669</v>
       </c>
       <c r="BT140" s="2"/>
@@ -15930,18 +16516,18 @@
       <c r="BX140" s="2"/>
       <c r="BY140" s="2"/>
     </row>
-    <row r="141" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="C141" s="2">
         <v>93</v>
       </c>
-      <c r="D141" s="25" t="s">
+      <c r="D141" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -16020,11 +16606,11 @@
       <c r="BP141" s="10"/>
       <c r="BQ141" s="10"/>
       <c r="BR141" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS141" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BT141" s="2"/>
@@ -16034,18 +16620,18 @@
       <c r="BX141" s="2"/>
       <c r="BY141" s="2"/>
     </row>
-    <row r="142" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C142" s="2">
         <v>93</v>
       </c>
-      <c r="D142" s="34">
+      <c r="D142" s="33">
         <v>0</v>
       </c>
-      <c r="E142" s="19" t="s">
-        <v>167</v>
+      <c r="E142" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -16096,13 +16682,13 @@
       <c r="AZ142" s="2"/>
       <c r="BA142" s="2"/>
       <c r="BB142" s="2"/>
-      <c r="BC142" s="22">
+      <c r="BC142" s="21">
         <v>-500</v>
       </c>
-      <c r="BD142" s="22">
+      <c r="BD142" s="21">
         <v>300</v>
       </c>
-      <c r="BE142" s="22">
+      <c r="BE142" s="21">
         <v>200</v>
       </c>
       <c r="BF142" s="16" t="s">
@@ -16124,7 +16710,7 @@
       <c r="BP142" s="16"/>
       <c r="BQ142" s="16"/>
       <c r="BR142" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BS142" s="2" t="s">
@@ -16137,18 +16723,18 @@
       <c r="BX142" s="2"/>
       <c r="BY142" s="2"/>
     </row>
-    <row r="143" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="C143" s="2">
         <v>93</v>
       </c>
-      <c r="D143" s="35">
+      <c r="D143" s="34">
         <v>9999999</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -16208,24 +16794,24 @@
       <c r="BE143" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="BF143" s="22">
+      <c r="BF143" s="21">
         <v>-500</v>
       </c>
-      <c r="BG143" s="22">
+      <c r="BG143" s="21">
         <v>300</v>
       </c>
-      <c r="BH143" s="22">
+      <c r="BH143" s="21">
         <v>200</v>
       </c>
-      <c r="BI143" s="22"/>
-      <c r="BJ143" s="22"/>
-      <c r="BK143" s="22"/>
-      <c r="BL143" s="22"/>
-      <c r="BM143" s="22"/>
-      <c r="BN143" s="22"/>
-      <c r="BO143" s="22"/>
-      <c r="BP143" s="22"/>
-      <c r="BQ143" s="22"/>
+      <c r="BI143" s="21"/>
+      <c r="BJ143" s="21"/>
+      <c r="BK143" s="21"/>
+      <c r="BL143" s="21"/>
+      <c r="BM143" s="21"/>
+      <c r="BN143" s="21"/>
+      <c r="BO143" s="21"/>
+      <c r="BP143" s="21"/>
+      <c r="BQ143" s="21"/>
       <c r="BR143" s="2" t="s">
         <v>7</v>
       </c>
@@ -16240,14 +16826,14 @@
       <c r="BX143" s="2"/>
       <c r="BY143" s="2"/>
     </row>
-    <row r="144" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="C144" s="2">
         <v>94</v>
       </c>
-      <c r="D144" s="25">
+      <c r="D144" s="24">
         <f>BR144/BS144</f>
         <v>1.6</v>
       </c>
@@ -16339,14 +16925,14 @@
       <c r="BX144" s="2"/>
       <c r="BY144" s="2"/>
     </row>
-    <row r="145" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="C145" s="2">
         <v>94</v>
       </c>
-      <c r="D145" s="25">
+      <c r="D145" s="24">
         <f>BR145/BS145</f>
         <v>0.8666666666666667</v>
       </c>
@@ -16424,11 +17010,11 @@
       <c r="BP145" s="6"/>
       <c r="BQ145" s="6"/>
       <c r="BR145" s="2">
-        <f t="shared" ref="BR145:BR158" si="20">AVERAGE(BI145,BJ145,BK145)</f>
+        <f t="shared" ref="BR145:BR158" si="24">AVERAGE(BI145,BJ145,BK145)</f>
         <v>1300</v>
       </c>
       <c r="BS145" s="2">
-        <f t="shared" ref="BS145:BS159" si="21">AD145</f>
+        <f t="shared" ref="BS145:BS159" si="25">AD145</f>
         <v>1500</v>
       </c>
       <c r="BT145" s="2"/>
@@ -16438,14 +17024,14 @@
       <c r="BX145" s="2"/>
       <c r="BY145" s="2"/>
     </row>
-    <row r="146" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="C146" s="2">
         <v>94</v>
       </c>
-      <c r="D146" s="25">
+      <c r="D146" s="24">
         <f>BR146/BS146</f>
         <v>0</v>
       </c>
@@ -16523,11 +17109,11 @@
       <c r="BP146" s="6"/>
       <c r="BQ146" s="6"/>
       <c r="BR146" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BS146" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="BT146" s="2"/>
@@ -16537,18 +17123,18 @@
       <c r="BX146" s="2"/>
       <c r="BY146" s="2"/>
     </row>
-    <row r="147" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="C147" s="2">
         <v>94</v>
       </c>
-      <c r="D147" s="25" t="s">
+      <c r="D147" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E147" s="41" t="s">
-        <v>190</v>
+      <c r="E147" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -16626,7 +17212,7 @@
         <v>7</v>
       </c>
       <c r="BS147" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="BT147" s="2"/>
@@ -16636,18 +17222,18 @@
       <c r="BX147" s="2"/>
       <c r="BY147" s="2"/>
     </row>
-    <row r="148" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="C148" s="2">
         <v>94</v>
       </c>
-      <c r="D148" s="23">
+      <c r="D148" s="22">
         <v>1000000</v>
       </c>
-      <c r="E148" s="41" t="s">
-        <v>165</v>
+      <c r="E148" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -16722,11 +17308,11 @@
       <c r="BP148" s="6"/>
       <c r="BQ148" s="6"/>
       <c r="BR148" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1033.3333333333333</v>
       </c>
       <c r="BS148" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BT148" s="2"/>
@@ -16736,18 +17322,18 @@
       <c r="BX148" s="2"/>
       <c r="BY148" s="2"/>
     </row>
-    <row r="149" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="C149" s="2">
         <v>94</v>
       </c>
-      <c r="D149" s="38">
+      <c r="D149" s="37">
         <v>-9999999</v>
       </c>
-      <c r="E149" s="41" t="s">
-        <v>164</v>
+      <c r="E149" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -16822,11 +17408,11 @@
       <c r="BP149" s="6"/>
       <c r="BQ149" s="6"/>
       <c r="BR149" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BS149" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BT149" s="2"/>
@@ -16836,18 +17422,18 @@
       <c r="BX149" s="2"/>
       <c r="BY149" s="2"/>
     </row>
-    <row r="150" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="C150" s="2">
         <v>94</v>
       </c>
-      <c r="D150" s="38">
+      <c r="D150" s="37">
         <v>9999999</v>
       </c>
-      <c r="E150" s="41" t="s">
-        <v>166</v>
+      <c r="E150" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -16925,7 +17511,7 @@
         <v>7</v>
       </c>
       <c r="BS150" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2000</v>
       </c>
       <c r="BT150" s="2"/>
@@ -16935,18 +17521,18 @@
       <c r="BX150" s="2"/>
       <c r="BY150" s="2"/>
     </row>
-    <row r="151" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="C151" s="2">
         <v>94</v>
       </c>
-      <c r="D151" s="40">
+      <c r="D151" s="39">
         <v>-1000000</v>
       </c>
-      <c r="E151" s="41" t="s">
-        <v>167</v>
+      <c r="E151" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -17021,11 +17607,11 @@
       <c r="BP151" s="10"/>
       <c r="BQ151" s="10"/>
       <c r="BR151" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>466.66666666666669</v>
       </c>
       <c r="BS151" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="BT151" s="2"/>
@@ -17035,19 +17621,19 @@
       <c r="BX151" s="2"/>
       <c r="BY151" s="2"/>
     </row>
-    <row r="152" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="C152" s="2">
         <v>94</v>
       </c>
-      <c r="D152" s="25">
+      <c r="D152" s="24">
         <f>BR152/BS152</f>
         <v>0</v>
       </c>
-      <c r="E152" s="65" t="s">
-        <v>169</v>
+      <c r="E152" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -17122,11 +17708,11 @@
       <c r="BP152" s="10"/>
       <c r="BQ152" s="10"/>
       <c r="BR152" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BS152" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-100</v>
       </c>
       <c r="BT152" s="2"/>
@@ -17136,18 +17722,18 @@
       <c r="BX152" s="2"/>
       <c r="BY152" s="2"/>
     </row>
-    <row r="153" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="C153" s="2">
         <v>94</v>
       </c>
-      <c r="D153" s="25" t="s">
+      <c r="D153" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E153" s="65" t="s">
-        <v>170</v>
+      <c r="E153" s="64" t="s">
+        <v>75</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -17222,11 +17808,11 @@
       <c r="BP153" s="10"/>
       <c r="BQ153" s="10"/>
       <c r="BR153" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="BS153" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-200</v>
       </c>
       <c r="BT153" s="2"/>
@@ -17236,18 +17822,18 @@
       <c r="BX153" s="2"/>
       <c r="BY153" s="2"/>
     </row>
-    <row r="154" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C154" s="2">
         <v>94</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E154" s="65" t="s">
-        <v>169</v>
+      <c r="E154" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -17322,11 +17908,11 @@
       <c r="BP154" s="10"/>
       <c r="BQ154" s="10"/>
       <c r="BR154" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="BS154" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-300</v>
       </c>
       <c r="BT154" s="2"/>
@@ -17336,18 +17922,18 @@
       <c r="BX154" s="2"/>
       <c r="BY154" s="2"/>
     </row>
-    <row r="155" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="C155" s="2">
         <v>94</v>
       </c>
-      <c r="D155" s="25" t="s">
+      <c r="D155" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E155" s="65" t="s">
-        <v>168</v>
+      <c r="E155" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -17422,11 +18008,11 @@
       <c r="BP155" s="10"/>
       <c r="BQ155" s="10"/>
       <c r="BR155" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS155" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BT155" s="2"/>
@@ -17436,18 +18022,18 @@
       <c r="BX155" s="2"/>
       <c r="BY155" s="2"/>
     </row>
-    <row r="156" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="C156" s="2">
         <v>94</v>
       </c>
-      <c r="D156" s="25" t="s">
+      <c r="D156" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E156" s="65" t="s">
-        <v>170</v>
+      <c r="E156" s="64" t="s">
+        <v>75</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -17522,11 +18108,11 @@
       <c r="BP156" s="10"/>
       <c r="BQ156" s="10"/>
       <c r="BR156" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS156" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-500</v>
       </c>
       <c r="BT156" s="2"/>
@@ -17536,18 +18122,18 @@
       <c r="BX156" s="2"/>
       <c r="BY156" s="2"/>
     </row>
-    <row r="157" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="C157" s="2">
         <v>94</v>
       </c>
-      <c r="D157" s="25" t="s">
+      <c r="D157" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E157" s="65" t="s">
-        <v>168</v>
+      <c r="E157" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -17622,11 +18208,11 @@
       <c r="BP157" s="10"/>
       <c r="BQ157" s="10"/>
       <c r="BR157" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="BS157" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="BT157" s="2"/>
@@ -17636,18 +18222,18 @@
       <c r="BX157" s="2"/>
       <c r="BY157" s="2"/>
     </row>
-    <row r="158" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="C158" s="2">
         <v>94</v>
       </c>
-      <c r="D158" s="34">
+      <c r="D158" s="33">
         <v>0</v>
       </c>
-      <c r="E158" s="66" t="s">
-        <v>167</v>
+      <c r="E158" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -17706,27 +18292,27 @@
       <c r="BF158" s="2"/>
       <c r="BG158" s="2"/>
       <c r="BH158" s="2"/>
-      <c r="BI158" s="22">
+      <c r="BI158" s="21">
         <v>-500</v>
       </c>
-      <c r="BJ158" s="22">
+      <c r="BJ158" s="21">
         <v>300</v>
       </c>
-      <c r="BK158" s="22">
+      <c r="BK158" s="21">
         <v>200</v>
       </c>
-      <c r="BL158" s="22"/>
-      <c r="BM158" s="22"/>
-      <c r="BN158" s="22"/>
-      <c r="BO158" s="22"/>
-      <c r="BP158" s="22"/>
-      <c r="BQ158" s="22"/>
+      <c r="BL158" s="21"/>
+      <c r="BM158" s="21"/>
+      <c r="BN158" s="21"/>
+      <c r="BO158" s="21"/>
+      <c r="BP158" s="21"/>
+      <c r="BQ158" s="21"/>
       <c r="BR158" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BS158" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="BT158" s="2"/>
@@ -17736,18 +18322,18 @@
       <c r="BX158" s="2"/>
       <c r="BY158" s="2"/>
     </row>
-    <row r="159" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="C159" s="2">
         <v>94</v>
       </c>
-      <c r="D159" s="35">
+      <c r="D159" s="34">
         <v>9999999</v>
       </c>
-      <c r="E159" s="67" t="s">
-        <v>166</v>
+      <c r="E159" s="66" t="s">
+        <v>71</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -17825,7 +18411,7 @@
         <v>7</v>
       </c>
       <c r="BS159" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BT159" s="2"/>
@@ -17835,18 +18421,18 @@
       <c r="BX159" s="2"/>
       <c r="BY159" s="2"/>
     </row>
-    <row r="160" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C160" s="2">
         <v>83</v>
       </c>
-      <c r="D160" s="25">
+      <c r="D160" s="24">
         <f>BR160/BS160</f>
         <v>0.39473684210526311</v>
       </c>
-      <c r="E160" s="67"/>
+      <c r="E160" s="66"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
@@ -17936,26 +18522,26 @@
         <v>250</v>
       </c>
       <c r="BU160" s="2">
-        <f t="shared" ref="BU160:BV160" si="22">BM160*(-1)</f>
+        <f t="shared" ref="BU160:BV160" si="26">BM160*(-1)</f>
         <v>250</v>
       </c>
       <c r="BV160" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>250</v>
       </c>
       <c r="BW160" s="2"/>
       <c r="BX160" s="2"/>
       <c r="BY160" s="2"/>
     </row>
-    <row r="161" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C161" s="2">
         <v>83</v>
       </c>
-      <c r="D161" s="25">
-        <f t="shared" ref="D161:D172" si="23">BR161/BS161</f>
+      <c r="D161" s="24">
+        <f t="shared" ref="D161" si="27">BR161/BS161</f>
         <v>0.2</v>
       </c>
       <c r="F161" s="2"/>
@@ -18038,15 +18624,15 @@
         <v>100</v>
       </c>
       <c r="BS161" s="2">
-        <f t="shared" ref="BS161:BS172" si="24">AVERAGE(BO161,BP161,BQ161)</f>
+        <f t="shared" ref="BS161:BS172" si="28">AVERAGE(BO161,BP161,BQ161)</f>
         <v>500</v>
       </c>
       <c r="BT161" s="2">
-        <f t="shared" ref="BT161:BT172" si="25">BL161*(-1)</f>
+        <f t="shared" ref="BT161:BT172" si="29">BL161*(-1)</f>
         <v>100</v>
       </c>
       <c r="BU161" s="2">
-        <f t="shared" ref="BU161:BU172" si="26">BM161*(-1)</f>
+        <f t="shared" ref="BU161:BU172" si="30">BM161*(-1)</f>
         <v>100</v>
       </c>
       <c r="BV161" s="2" t="s">
@@ -18056,9 +18642,9 @@
       <c r="BX161" s="2"/>
       <c r="BY161" s="2"/>
     </row>
-    <row r="162" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C162" s="2">
         <v>83</v>
@@ -18066,8 +18652,8 @@
       <c r="D162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="68" t="s">
-        <v>282</v>
+      <c r="E162" s="67" t="s">
+        <v>112</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -18127,13 +18713,13 @@
       <c r="BI162" s="2"/>
       <c r="BJ162" s="2"/>
       <c r="BK162" s="2"/>
-      <c r="BL162" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM162" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN162" s="59" t="s">
+      <c r="BL162" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM162" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN162" s="58" t="s">
         <v>7</v>
       </c>
       <c r="BO162" s="2" t="s">
@@ -18164,18 +18750,18 @@
       <c r="BX162" s="2"/>
       <c r="BY162" s="2"/>
     </row>
-    <row r="163" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="C163" s="2">
         <v>83</v>
       </c>
-      <c r="D163" s="25">
+      <c r="D163" s="24">
         <v>999999</v>
       </c>
-      <c r="E163" s="68" t="s">
-        <v>283</v>
+      <c r="E163" s="67" t="s">
+        <v>113</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -18254,41 +18840,41 @@
         <v>600</v>
       </c>
       <c r="BR163" s="2">
-        <f t="shared" ref="BR161:BR172" si="27">AVERAGE(BT163,BU163,BV163)</f>
+        <f t="shared" ref="BR163:BR172" si="31">AVERAGE(BT163,BU163,BV163)</f>
         <v>0</v>
       </c>
       <c r="BS163" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BT163" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-500</v>
       </c>
       <c r="BU163" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
       <c r="BV163" s="2">
-        <f t="shared" ref="BV161:BV172" si="28">BN163*(-1)</f>
+        <f t="shared" ref="BV163:BV172" si="32">BN163*(-1)</f>
         <v>200</v>
       </c>
       <c r="BW163" s="2"/>
       <c r="BX163" s="2"/>
       <c r="BY163" s="2"/>
     </row>
-    <row r="164" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C164" s="2">
         <v>83</v>
       </c>
-      <c r="D164" s="25">
+      <c r="D164" s="24">
         <v>1000000</v>
       </c>
-      <c r="E164" s="68" t="s">
-        <v>284</v>
+      <c r="E164" s="67" t="s">
+        <v>114</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -18367,41 +18953,41 @@
         <v>600</v>
       </c>
       <c r="BR164" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>200</v>
       </c>
       <c r="BS164" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BT164" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>200</v>
       </c>
       <c r="BU164" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="BV164" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>200</v>
       </c>
       <c r="BW164" s="2"/>
       <c r="BX164" s="2"/>
       <c r="BY164" s="2"/>
     </row>
-    <row r="165" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C165" s="2">
         <v>83</v>
       </c>
-      <c r="D165" s="25" t="s">
+      <c r="D165" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="68" t="s">
-        <v>285</v>
+      <c r="E165" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -18470,41 +19056,41 @@
       <c r="BN165" s="9">
         <v>-250</v>
       </c>
-      <c r="BO165" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP165" s="60" t="s">
+      <c r="BO165" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP165" s="59" t="s">
         <v>7</v>
       </c>
       <c r="BQ165" s="11" t="s">
         <v>7</v>
       </c>
       <c r="BR165" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>300</v>
       </c>
       <c r="BS165" s="2" t="s">
         <v>7</v>
       </c>
       <c r="BT165" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>350</v>
       </c>
       <c r="BU165" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
       <c r="BV165" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>250</v>
       </c>
       <c r="BW165" s="2"/>
       <c r="BX165" s="2"/>
       <c r="BY165" s="2"/>
     </row>
-    <row r="166" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C166" s="2">
         <v>83</v>
@@ -18512,8 +19098,8 @@
       <c r="D166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E166" s="68" t="s">
-        <v>286</v>
+      <c r="E166" s="67" t="s">
+        <v>116</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -18573,29 +19159,29 @@
       <c r="BI166" s="2"/>
       <c r="BJ166" s="2"/>
       <c r="BK166" s="2"/>
-      <c r="BL166" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM166" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN166" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO166" s="60">
+      <c r="BL166" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM166" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN166" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO166" s="59">
         <v>250</v>
       </c>
-      <c r="BP166" s="60">
+      <c r="BP166" s="59">
         <v>300</v>
       </c>
-      <c r="BQ166" s="60">
+      <c r="BQ166" s="59">
         <v>700</v>
       </c>
       <c r="BR166" s="2" t="s">
         <v>7</v>
       </c>
       <c r="BS166" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>416.66666666666669</v>
       </c>
       <c r="BT166" s="2" t="s">
@@ -18611,9 +19197,9 @@
       <c r="BX166" s="2"/>
       <c r="BY166" s="2"/>
     </row>
-    <row r="167" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C167" s="2">
         <v>83</v>
@@ -18621,8 +19207,8 @@
       <c r="D167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E167" s="68" t="s">
-        <v>287</v>
+      <c r="E167" s="67" t="s">
+        <v>117</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -18691,42 +19277,42 @@
       <c r="BN167" s="9">
         <v>100</v>
       </c>
-      <c r="BO167" s="60">
+      <c r="BO167" s="59">
         <v>250</v>
       </c>
-      <c r="BP167" s="60">
+      <c r="BP167" s="59">
         <v>300</v>
       </c>
-      <c r="BQ167" s="60">
+      <c r="BQ167" s="59">
         <v>700</v>
       </c>
       <c r="BR167" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="BS167" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>416.66666666666669</v>
       </c>
       <c r="BT167" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>250</v>
       </c>
       <c r="BU167" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-500</v>
       </c>
       <c r="BV167" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-100</v>
       </c>
       <c r="BW167" s="2"/>
       <c r="BX167" s="2"/>
       <c r="BY167" s="2"/>
     </row>
-    <row r="168" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C168" s="2">
         <v>83</v>
@@ -18734,8 +19320,8 @@
       <c r="D168" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E168" s="68" t="s">
-        <v>287</v>
+      <c r="E168" s="67" t="s">
+        <v>117</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -18804,42 +19390,42 @@
       <c r="BN168" s="9">
         <v>100</v>
       </c>
-      <c r="BO168" s="60">
+      <c r="BO168" s="59">
         <v>-350</v>
       </c>
-      <c r="BP168" s="60">
+      <c r="BP168" s="59">
         <v>300</v>
       </c>
-      <c r="BQ168" s="60">
+      <c r="BQ168" s="59">
         <v>50</v>
       </c>
       <c r="BR168" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="BS168" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BT168" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>250</v>
       </c>
       <c r="BU168" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-500</v>
       </c>
       <c r="BV168" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-100</v>
       </c>
       <c r="BW168" s="2"/>
       <c r="BX168" s="2"/>
       <c r="BY168" s="2"/>
     </row>
-    <row r="169" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C169" s="2">
         <v>83</v>
@@ -18847,8 +19433,8 @@
       <c r="D169" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E169" s="68" t="s">
-        <v>288</v>
+      <c r="E169" s="67" t="s">
+        <v>118</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -18917,42 +19503,42 @@
       <c r="BN169" s="9">
         <v>100</v>
       </c>
-      <c r="BO169" s="60">
+      <c r="BO169" s="59">
         <v>-100</v>
       </c>
-      <c r="BP169" s="60">
+      <c r="BP169" s="59">
         <v>-150</v>
       </c>
-      <c r="BQ169" s="60">
+      <c r="BQ169" s="59">
         <v>200</v>
       </c>
       <c r="BR169" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="BS169" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-16.666666666666668</v>
       </c>
       <c r="BT169" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>250</v>
       </c>
       <c r="BU169" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-500</v>
       </c>
       <c r="BV169" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-100</v>
       </c>
       <c r="BW169" s="2"/>
       <c r="BX169" s="2"/>
       <c r="BY169" s="2"/>
     </row>
-    <row r="170" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C170" s="2">
         <v>83</v>
@@ -18960,8 +19546,8 @@
       <c r="D170" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E170" s="68" t="s">
-        <v>289</v>
+      <c r="E170" s="67" t="s">
+        <v>119</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -19030,42 +19616,42 @@
       <c r="BN170" s="9">
         <v>-150</v>
       </c>
-      <c r="BO170" s="60">
+      <c r="BO170" s="59">
         <v>-200</v>
       </c>
-      <c r="BP170" s="60">
+      <c r="BP170" s="59">
         <v>500</v>
       </c>
-      <c r="BQ170" s="60">
+      <c r="BQ170" s="59">
         <v>-700</v>
       </c>
       <c r="BR170" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>150</v>
       </c>
       <c r="BS170" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="BT170" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>150</v>
       </c>
       <c r="BU170" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>150</v>
       </c>
       <c r="BV170" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>150</v>
       </c>
       <c r="BW170" s="2"/>
       <c r="BX170" s="2"/>
       <c r="BY170" s="2"/>
     </row>
-    <row r="171" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B171" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C171" s="2">
         <v>83</v>
@@ -19073,8 +19659,8 @@
       <c r="D171" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="68" t="s">
-        <v>289</v>
+      <c r="E171" s="67" t="s">
+        <v>119</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -19143,42 +19729,42 @@
       <c r="BN171" s="9">
         <v>-100</v>
       </c>
-      <c r="BO171" s="60">
+      <c r="BO171" s="59">
         <v>-200</v>
       </c>
-      <c r="BP171" s="60">
+      <c r="BP171" s="59">
         <v>500</v>
       </c>
-      <c r="BQ171" s="60">
+      <c r="BQ171" s="59">
         <v>-700</v>
       </c>
       <c r="BR171" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BS171" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="BT171" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-200</v>
       </c>
       <c r="BU171" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="BV171" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="BW171" s="2"/>
       <c r="BX171" s="2"/>
       <c r="BY171" s="2"/>
     </row>
-    <row r="172" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B172" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C172" s="2">
         <v>83</v>
@@ -19186,8 +19772,8 @@
       <c r="D172" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E172" s="69" t="s">
-        <v>288</v>
+      <c r="E172" s="68" t="s">
+        <v>118</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -19256,33 +19842,33 @@
       <c r="BN172" s="9">
         <v>550</v>
       </c>
-      <c r="BO172" s="48">
+      <c r="BO172" s="47">
         <v>-200</v>
       </c>
-      <c r="BP172" s="48">
+      <c r="BP172" s="47">
         <v>500</v>
       </c>
-      <c r="BQ172" s="48">
+      <c r="BQ172" s="47">
         <v>-700</v>
       </c>
       <c r="BR172" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="BS172" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="BT172" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>450</v>
       </c>
       <c r="BU172" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-150</v>
       </c>
       <c r="BV172" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-550</v>
       </c>
       <c r="BW172" s="2"/>
@@ -19303,742 +19889,742 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>260</v>
+      <c r="E3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>1</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>1</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="58"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="57"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="58"/>
+      <c r="F5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>1</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="25">
+      <c r="E6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="24">
         <v>1</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="58"/>
+      <c r="G6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="57"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="24">
         <v>1</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="58"/>
+      <c r="H7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="E8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="24">
         <v>1</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="58"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="57"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>0</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="58"/>
+      <c r="E9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2">
         <v>90</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24">
         <v>1</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <v>1</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="24">
         <v>1</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="24">
         <v>1</v>
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>297</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="25">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24">
         <v>1</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>7</v>
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2">
         <v>90</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="25">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="24">
         <v>1</v>
       </c>
-      <c r="K12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="25" t="s">
+      <c r="K12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>7</v>
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2">
         <v>90</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="25">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="24">
         <v>1</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2">
         <v>90</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>1</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="25">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="24">
         <v>1</v>
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="62">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="61">
         <v>90</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="62">
         <v>0</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="63" t="s">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>7</v>
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <v>83</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>1</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="58"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>0</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="58"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="57"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="57"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="57"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="57"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="56"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="57"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="57"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="57"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="57"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="57"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="57"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="56"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="57"/>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="55"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="55"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="55"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="55"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="55"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="55"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="55"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="55"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="55"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="55"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="55"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="55"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="56"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="55"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="55"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="56"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="55"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="55"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="55"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="56"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="55"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="55"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="56"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="55"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="56"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="55"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="56"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="55"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="56"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="55"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="56"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="55"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
